--- a/Luban/Config/Datas/#NoteMap.xlsx
+++ b/Luban/Config/Datas/#NoteMap.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Luban\Luban\Config\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gamejam\MusicGame\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EE171D-5149-4C24-993D-A5BA1A6B0457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D959C995-A1A6-473F-A041-48F18384AF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37020" yWindow="3696" windowWidth="23040" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,11 +76,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>(list#sep=|),(Note#sep=,)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1,1,5,0,1|2,2,5,0,1|3,2,5,0,1|4,1,5,0,1|5,1,5,0,1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=|),(NoteModel#sep=,)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -527,7 +527,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -558,7 +558,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">

--- a/Luban/Config/Datas/#NoteMap.xlsx
+++ b/Luban/Config/Datas/#NoteMap.xlsx
@@ -1,94 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gamejam\MusicGame\Luban\Config\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D959C995-A1A6-473F-A041-48F18384AF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="13545" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>##var</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
+    <t>music_name</t>
+  </si>
+  <si>
+    <t>node_list</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
+    <t>(list#sep=|),(NoteModel#sep=,)</t>
+  </si>
+  <si>
     <t>##</t>
   </si>
   <si>
     <t>名字</t>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>music_name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>播放音乐名字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>node_list</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>音符序列</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐1</t>
   </si>
   <si>
     <t>music1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>音乐1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,5,0,1|2,2,5,0,1|3,2,5,0,1|4,1,5,0,1|5,1,5,0,1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(list#sep=|),(NoteModel#sep=,)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.10,1,5,5,1|0.97,1,5,0,1|1.57,2,5,0,1|2.65,2,5,0,1|3.44,1,5,0,1|4.25,1,5,0,1|4.87,2,5,0,1|5.94,2,5,0,1|6.11,1,5,0,1|6.75,2,5,0,1|7.57,2,5,0,1|7.70,2,5,0,1|8.17,1,5,0,1|9.20,2,5,0,1|9.61,2,5,0,1|10.05,1,5,0,1|10.84,2,5,0,1|11.54,2,5,0,1|12.52,2,5,0,1|12.95,1,5,0,1|13.36,2,5,0,1|14.20,1,5,0,1|14.33,2,5,0,1|14.80,1,5,0,1|15.40,2,5,0,1|15.87,2,5,0,1|16.24,1,5,0,1|16.68,2,5,0,1|17.06,1,5,0,1|17.23,2,5,0,1|17.48,1,5,0,1|17.89,2,5,0,1|18.10,1,5,0,1|18.72,2,5,0,1|19.15,2,5,0,1|19.57,2,5,0,1|19.96,1,5,0,1|20.32,2,5,0,1|20.55,1,5,0,1|20.76,2,5,0,1|22.44,1,5,0,1|22.88,1,5,0,1|23.31,1,5,0,1|23.71,2,5,0,1|23.91,1,5,0,1|24.14,2,5,0,1|24.57,1,5,0,1|24.74,2,5,0,1|25.35,1,5,0,1|26.19,1,5,0,1|26.61,2,5,0,1|27.01,1,5,0,1|27.22,1,5,0,1|27.39,2,5,0,1|28.06,2,5,0,1|28.67,1,5,0,1|29.11,1,5,0,1|29.98,2,5,0,1|30.72,1,5,0,1|31.37,2,5,0,1|31.97,2,5,0,1|32.39,2,5,0,1|32.83,2,5,0,1|33.20,1,5,0,1|34.02,1,5,0,1|34.67,2,5,0,1|35.26,2,5,0,1|35.70,1,5,0,1|35.89,2,5,0,1|36.10,1,5,0,1|36.29,2,5,0,1|36.52,1,5,0,1|36.95,2,5,0,1|37.36,2,5,0,1|37.80,2,5,0,1|37.98,1,5,0,1|38.62,1,5,0,1|39.00,2,5,0,1|39.85,2,5,0,1|40.67,1,5,0,1|41.27,2,5,0,1|41.91,1,5,0,1|42.32,1,5,0,1|42.52,2,5,0,1|42.74,1,5,0,1|42.93,2,5,0,1|43.16,1,5,0,1|43.55,1,5,0,1|43.96,1,5,0,1|44.60,2,5,0,1|45.19,1,5,0,1|45.64,2,5,0,1|46.07,1,5,0,1|46.44,1,5,0,1|46.84,2,5,0,1|47.05,2,5,0,1|48.92,2,5,0,1|49.34,2,5,0,1|49.78,2,5,0,1|50.19,1,5,0,1|50.58,2,5,0,1|51.21,2,5,0,1|51.83,1,5,0,1|52.27,2,5,0,1|52.44,1,5,0,1|53.10,2,5,0,1|53.54,1,5,0,1|53.75,2,5,0,1|54.55,1,5,0,1|55.75,1,5,0,1|56.38,2,5,0,1|56.80,1,5,0,1|57.00,2,5,0,1|57.20,1,5,0,1|57.61,2,5,0,1|57.82,2,5,0,1|58.04,2,5,0,1|58.44,1,5,0,1|58.86,1,5,0,1|59.27,2,5,0,1|59.69,1,5,0,1|60.11,1,5,0,1|60.31,1,5,0,1|60.51,2,5,0,1|60.93,2,5,0,1|61.14,2,5,0,1|61.34,1,5,0,1|61.75,1,5,0,1|61.97,1,5,0,1|62.47,2,5,0,1|62.57,2,5,0,1|63.01,1,5,0,1|63.40,1,5,0,1|63.62,1,5,0,1|63.83,1,5,0,1|64.29,2,5,0,1|64.45,2,5,0,1|64.65,2,5,0,1|65.06,1,5,0,1|65.26,2,5,0,1|65.49,1,5,0,1|65.89,2,5,0,1|66.32,2,5,0,1|66.74,1,5,0,1|66.94,2,5,0,1|67.13,1,5,0,1|67.55,1,5,0,1|67.76,1,5,0,1|67.96,1,5,0,1|68.38,2,5,0,1|69.62,2,5,0,1|70.04,2,5,0,1|70.24,1,5,0,1|70.44,2,5,0,1|70.86,1,5,0,1|71.27,1,5,0,1|71.69,1,5,0,1|71.91,2,5,0,1|72.33,1,5,0,1|72.51,2,5,0,1|72.93,1,5,0,1|73.35,1,5,0,1|73.55,1,5,0,1|73.76,1,5,0,1|74.17,2,5,0,1|74.59,2,5,0,1|74.99,2,5,0,1|75.41,1,5,0,1|75.60,2,5,0,1|76.35,1,5,0,1|77.92,2,5,0,1|79.55,1,5,0,1|81.21,2,5,0,1|82.87,1,5,0,1|83.30,1,5,0,1|83.68,1,5,0,1|84.53,2,5,0,1|85.56,1,5,0,1|86.16,2,5,0,1|86.58,2,5,0,1|86.98,1,5,0,1|87.43,2,5,0,1|87.84,2,5,0,1|88.25,2,5,0,1|88.65,1,5,0,1|89.07,1,5,0,1|89.50,1,5,0,1|90.29,2,5,0,1|90.52,2,5,0,1|90.93,1,5,0,1|91.96,1,5,0,1|92.18,1,5,0,1|92.37,2,5,0,1|92.56,1,5,0,1|92.77,1,5,0,1|93.20,1,5,0,1|93.65,1,5,0,1|93.85,1,5,0,1|94.05,2,5,0,1|94.25,2,5,0,1|94.86,2,5,0,1|95.08,2,5,0,1|95.29,2,5,0,1|95.50,2,5,0,1|95.70,1,5,0,1|95.91,2,5,0,1|96.11,2,5,0,1|96.95,1,5,0,1|97.55,2,5,0,1|98.21,2,5,0,1|98.62,1,5,0,1|99.42,1,5,0,1|99.84,1,5,0,1|100.06,2,5,0,1|100.15,1,5,0,1|100.24,2,5,0,1|100.44,2,5,0,1|100.66,2,5,0,1|100.87,2,5,0,1|101.48,1,5,0,1|101.89,2,5,0,1|102.31,1,5,0,1|102.72,2,5,0,1|104.18,1,5,0,1|104.81,1,5,0,1|105.21,2,5,0,1|105.42,1,5,0,1|106.03,2,5,0,1|106.48,2,5,0,1|106.68,2,5,0,1|106.87,2,5,0,1|107.31,1,5,0,1|108.14,1,5,0,1|108.33,1,5,0,1|108.52,1,5,0,1|108.73,2,5,0,1|108.94,1,5,0,1|109.14,1,5,0,1|109.35,1,5,0,1|110.19,2,5,0,1|110.40,1,5,0,1|110.60,2,5,0,1|110.81,1,5,0,1|110.99,2,5,0,1|111.42,1,5,0,1|111.85,1,5,0,1|112.26,2,5,0,1|112.65,2,5,0,1|113.08,2,5,0,1|113.48,1,5,0,1|113.89,2,5,0,1|114.30,1,5,0,1|114.74,2,5,0,1|115.98,2,5,0,1|116.37,1,5,0,1|116.80,2,5,0,1|117.20,1,5,0,1|117.30,2,5,0,1|117.60,1,5,0,1|118.05,1,5,0,1|118.47,2,5,0,1|118.67,2,5,0,1|118.86,2,5,0,1|119.05,1,5,0,1|119.28,1,5,0,1|119.69,1,5,0,1|119.91,1,5,0,1|120.12,2,5,0,1|120.54,1,5,0,1|120.75,2,5,0,1|121.35,1,5,0,1|121.94,2,5,0,1|122.60,2,5,0,1|123.00,2,5,0,1|123.21,2,5,0,1|123.41,1,5,0,1|123.83,2,5,0,1|124.05,1,5,0,1|124.68,1,5,0,1|124.88,1,5,0,1|125.09,2,5,0,1|125.50,1,5,0,1|125.70,1,5,0,1|125.90,2,5,0,1|126.32,1,5,0,1|126.54,1,5,0,1|126.63,2,5,0,1|126.72,1,5,0,1|127.16,1,5,0,1|127.35,2,5,0,1|127.99,2,5,0,1|128.42,2,5,0,1|128.82,1,5,0,1|129.23,2,5,0,1|129.62,1,5,0,1|129.82,2,5,0,1|130.05,1,5,0,1|130.45,1,5,0,1|130.67,2,5,0,1|131.27,2,5,0,1|131.71,2,5,0,1|131.91,1,5,0,1|132.53,1,5,0,1|132.95,1,5,0,1|133.35,1,5,0,1|133.75,2,5,0,1|134.15,1,5,0,1|134.58,2,5,0,1|135.02,1,5,0,1|135.22,2,5,0,1|135.41,1,5,0,1|135.62,2,5,0,1|135.82,1,5,0,1|136.27,1,5,0,1|136.48,1,5,0,1|137.11,2,5,0,1|137.30,2,5,0,1|137.89,1,5,0,1|138.32,2,5,0,1|139.14,2,5,0,1|139.57,2,5,0,1|139.99,1,5,0,1|140.38,1,5,0,1|141.21,2,5,0,1|142.47,1,5,0,1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,7 +99,6 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -108,27 +106,141 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,8 +259,182 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -171,47 +457,328 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="差" xfId="2" builtinId="27"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -469,147 +1036,149 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="41.109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="59.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33333333333333" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.21666666666667" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.3333333333333" style="3" customWidth="1"/>
+    <col min="5" max="5" width="49.6666666666667" style="3" customWidth="1"/>
+    <col min="6" max="6" width="41.1083333333333" style="3" customWidth="1"/>
+    <col min="7" max="7" width="59.2166666666667" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
+    <row r="4" ht="174" customHeight="1" spans="1:5">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+    <row r="5" spans="5:6">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="5:6">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="5:7">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+    <row r="8" spans="5:6">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="5:6">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="5:6">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="5:7">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+    <row r="12" spans="5:6">
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="5:6">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="5:6">
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="5:6">
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Luban/Config/Datas/#NoteMap.xlsx
+++ b/Luban/Config/Datas/#NoteMap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13545" windowHeight="12255"/>
+    <workbookView windowWidth="15225" windowHeight="11865"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
     <t>music1</t>
   </si>
   <si>
-    <t>0.10,1,5,5,1|0.97,1,5,0,1|1.57,2,5,0,1|2.65,2,5,0,1|3.44,1,5,0,1|4.25,1,5,0,1|4.87,2,5,0,1|5.94,2,5,0,1|6.11,1,5,0,1|6.75,2,5,0,1|7.57,2,5,0,1|7.70,2,5,0,1|8.17,1,5,0,1|9.20,2,5,0,1|9.61,2,5,0,1|10.05,1,5,0,1|10.84,2,5,0,1|11.54,2,5,0,1|12.52,2,5,0,1|12.95,1,5,0,1|13.36,2,5,0,1|14.20,1,5,0,1|14.33,2,5,0,1|14.80,1,5,0,1|15.40,2,5,0,1|15.87,2,5,0,1|16.24,1,5,0,1|16.68,2,5,0,1|17.06,1,5,0,1|17.23,2,5,0,1|17.48,1,5,0,1|17.89,2,5,0,1|18.10,1,5,0,1|18.72,2,5,0,1|19.15,2,5,0,1|19.57,2,5,0,1|19.96,1,5,0,1|20.32,2,5,0,1|20.55,1,5,0,1|20.76,2,5,0,1|22.44,1,5,0,1|22.88,1,5,0,1|23.31,1,5,0,1|23.71,2,5,0,1|23.91,1,5,0,1|24.14,2,5,0,1|24.57,1,5,0,1|24.74,2,5,0,1|25.35,1,5,0,1|26.19,1,5,0,1|26.61,2,5,0,1|27.01,1,5,0,1|27.22,1,5,0,1|27.39,2,5,0,1|28.06,2,5,0,1|28.67,1,5,0,1|29.11,1,5,0,1|29.98,2,5,0,1|30.72,1,5,0,1|31.37,2,5,0,1|31.97,2,5,0,1|32.39,2,5,0,1|32.83,2,5,0,1|33.20,1,5,0,1|34.02,1,5,0,1|34.67,2,5,0,1|35.26,2,5,0,1|35.70,1,5,0,1|35.89,2,5,0,1|36.10,1,5,0,1|36.29,2,5,0,1|36.52,1,5,0,1|36.95,2,5,0,1|37.36,2,5,0,1|37.80,2,5,0,1|37.98,1,5,0,1|38.62,1,5,0,1|39.00,2,5,0,1|39.85,2,5,0,1|40.67,1,5,0,1|41.27,2,5,0,1|41.91,1,5,0,1|42.32,1,5,0,1|42.52,2,5,0,1|42.74,1,5,0,1|42.93,2,5,0,1|43.16,1,5,0,1|43.55,1,5,0,1|43.96,1,5,0,1|44.60,2,5,0,1|45.19,1,5,0,1|45.64,2,5,0,1|46.07,1,5,0,1|46.44,1,5,0,1|46.84,2,5,0,1|47.05,2,5,0,1|48.92,2,5,0,1|49.34,2,5,0,1|49.78,2,5,0,1|50.19,1,5,0,1|50.58,2,5,0,1|51.21,2,5,0,1|51.83,1,5,0,1|52.27,2,5,0,1|52.44,1,5,0,1|53.10,2,5,0,1|53.54,1,5,0,1|53.75,2,5,0,1|54.55,1,5,0,1|55.75,1,5,0,1|56.38,2,5,0,1|56.80,1,5,0,1|57.00,2,5,0,1|57.20,1,5,0,1|57.61,2,5,0,1|57.82,2,5,0,1|58.04,2,5,0,1|58.44,1,5,0,1|58.86,1,5,0,1|59.27,2,5,0,1|59.69,1,5,0,1|60.11,1,5,0,1|60.31,1,5,0,1|60.51,2,5,0,1|60.93,2,5,0,1|61.14,2,5,0,1|61.34,1,5,0,1|61.75,1,5,0,1|61.97,1,5,0,1|62.47,2,5,0,1|62.57,2,5,0,1|63.01,1,5,0,1|63.40,1,5,0,1|63.62,1,5,0,1|63.83,1,5,0,1|64.29,2,5,0,1|64.45,2,5,0,1|64.65,2,5,0,1|65.06,1,5,0,1|65.26,2,5,0,1|65.49,1,5,0,1|65.89,2,5,0,1|66.32,2,5,0,1|66.74,1,5,0,1|66.94,2,5,0,1|67.13,1,5,0,1|67.55,1,5,0,1|67.76,1,5,0,1|67.96,1,5,0,1|68.38,2,5,0,1|69.62,2,5,0,1|70.04,2,5,0,1|70.24,1,5,0,1|70.44,2,5,0,1|70.86,1,5,0,1|71.27,1,5,0,1|71.69,1,5,0,1|71.91,2,5,0,1|72.33,1,5,0,1|72.51,2,5,0,1|72.93,1,5,0,1|73.35,1,5,0,1|73.55,1,5,0,1|73.76,1,5,0,1|74.17,2,5,0,1|74.59,2,5,0,1|74.99,2,5,0,1|75.41,1,5,0,1|75.60,2,5,0,1|76.35,1,5,0,1|77.92,2,5,0,1|79.55,1,5,0,1|81.21,2,5,0,1|82.87,1,5,0,1|83.30,1,5,0,1|83.68,1,5,0,1|84.53,2,5,0,1|85.56,1,5,0,1|86.16,2,5,0,1|86.58,2,5,0,1|86.98,1,5,0,1|87.43,2,5,0,1|87.84,2,5,0,1|88.25,2,5,0,1|88.65,1,5,0,1|89.07,1,5,0,1|89.50,1,5,0,1|90.29,2,5,0,1|90.52,2,5,0,1|90.93,1,5,0,1|91.96,1,5,0,1|92.18,1,5,0,1|92.37,2,5,0,1|92.56,1,5,0,1|92.77,1,5,0,1|93.20,1,5,0,1|93.65,1,5,0,1|93.85,1,5,0,1|94.05,2,5,0,1|94.25,2,5,0,1|94.86,2,5,0,1|95.08,2,5,0,1|95.29,2,5,0,1|95.50,2,5,0,1|95.70,1,5,0,1|95.91,2,5,0,1|96.11,2,5,0,1|96.95,1,5,0,1|97.55,2,5,0,1|98.21,2,5,0,1|98.62,1,5,0,1|99.42,1,5,0,1|99.84,1,5,0,1|100.06,2,5,0,1|100.15,1,5,0,1|100.24,2,5,0,1|100.44,2,5,0,1|100.66,2,5,0,1|100.87,2,5,0,1|101.48,1,5,0,1|101.89,2,5,0,1|102.31,1,5,0,1|102.72,2,5,0,1|104.18,1,5,0,1|104.81,1,5,0,1|105.21,2,5,0,1|105.42,1,5,0,1|106.03,2,5,0,1|106.48,2,5,0,1|106.68,2,5,0,1|106.87,2,5,0,1|107.31,1,5,0,1|108.14,1,5,0,1|108.33,1,5,0,1|108.52,1,5,0,1|108.73,2,5,0,1|108.94,1,5,0,1|109.14,1,5,0,1|109.35,1,5,0,1|110.19,2,5,0,1|110.40,1,5,0,1|110.60,2,5,0,1|110.81,1,5,0,1|110.99,2,5,0,1|111.42,1,5,0,1|111.85,1,5,0,1|112.26,2,5,0,1|112.65,2,5,0,1|113.08,2,5,0,1|113.48,1,5,0,1|113.89,2,5,0,1|114.30,1,5,0,1|114.74,2,5,0,1|115.98,2,5,0,1|116.37,1,5,0,1|116.80,2,5,0,1|117.20,1,5,0,1|117.30,2,5,0,1|117.60,1,5,0,1|118.05,1,5,0,1|118.47,2,5,0,1|118.67,2,5,0,1|118.86,2,5,0,1|119.05,1,5,0,1|119.28,1,5,0,1|119.69,1,5,0,1|119.91,1,5,0,1|120.12,2,5,0,1|120.54,1,5,0,1|120.75,2,5,0,1|121.35,1,5,0,1|121.94,2,5,0,1|122.60,2,5,0,1|123.00,2,5,0,1|123.21,2,5,0,1|123.41,1,5,0,1|123.83,2,5,0,1|124.05,1,5,0,1|124.68,1,5,0,1|124.88,1,5,0,1|125.09,2,5,0,1|125.50,1,5,0,1|125.70,1,5,0,1|125.90,2,5,0,1|126.32,1,5,0,1|126.54,1,5,0,1|126.63,2,5,0,1|126.72,1,5,0,1|127.16,1,5,0,1|127.35,2,5,0,1|127.99,2,5,0,1|128.42,2,5,0,1|128.82,1,5,0,1|129.23,2,5,0,1|129.62,1,5,0,1|129.82,2,5,0,1|130.05,1,5,0,1|130.45,1,5,0,1|130.67,2,5,0,1|131.27,2,5,0,1|131.71,2,5,0,1|131.91,1,5,0,1|132.53,1,5,0,1|132.95,1,5,0,1|133.35,1,5,0,1|133.75,2,5,0,1|134.15,1,5,0,1|134.58,2,5,0,1|135.02,1,5,0,1|135.22,2,5,0,1|135.41,1,5,0,1|135.62,2,5,0,1|135.82,1,5,0,1|136.27,1,5,0,1|136.48,1,5,0,1|137.11,2,5,0,1|137.30,2,5,0,1|137.89,1,5,0,1|138.32,2,5,0,1|139.14,2,5,0,1|139.57,2,5,0,1|139.99,1,5,0,1|140.38,1,5,0,1|141.21,2,5,0,1|142.47,1,5,0,1</t>
+    <t>0.10,1,5,5,1|0.97,1,5,0,1|1.57,2,5,0,1|2.65,2,5,0,1|3.44,1,5,0,1|4.25,1,5,0,1|4.87,2,5,0,1|5.94,2,5,0,1|6.11,1,5,0,1|6.75,2,5,0,1|7.57,1,5,0,1|7.70,2,5,0,1|8.17,1,5,0,1|9.20,2,5,0,1|9.61,2,5,0,1|10.05,1,5,0,1|10.84,2,5,0,1|11.54,2,5,0,1|12.52,2,5,0,1|12.95,1,5,0,1|13.36,2,5,0,1|14.20,1,5,0,1|14.33,2,5,0,1|14.80,1,5,0,1|15.40,2,5,0,1|15.87,2,5,0,1|16.24,1,5,0,1|16.68,2,5,0,1|17.06,1,5,0,1|17.23,2,5,0,1|17.48,1,5,0,1|17.89,2,5,0,1|18.10,1,5,0,1|18.72,2,5,0,1|19.15,2,5,0,1|19.57,2,5,0,1|19.96,1,5,0,1|20.32,2,5,0,1|20.55,1,5,0,1|20.76,2,5,0,1|22.44,1,5,0,1|22.88,1,5,0,1|23.31,1,5,0,1|23.71,2,5,0,1|23.91,1,5,0,1|24.14,2,5,0,1|24.57,1,5,0,1|24.74,2,5,0,1|25.35,1,5,0,1|26.19,1,5,0,1|26.61,2,5,0,1|27.01,1,5,0,1|27.22,1,5,0,1|27.39,2,5,0,1|28.06,2,5,0,1|28.67,1,5,0,1|29.11,1,5,0,1|29.98,2,5,0,1|30.72,1,5,0,1|31.37,2,5,0,1|31.97,2,5,0,1|32.39,2,5,0,1|32.83,2,5,0,1|33.20,1,5,0,1|34.02,1,5,0,1|34.67,2,5,0,1|35.26,2,5,0,1|35.70,1,5,0,1|35.89,2,5,0,1|36.10,1,5,0,1|36.29,2,5,0,1|36.52,1,5,0,1|36.95,2,5,0,1|37.36,2,5,0,1|37.80,2,5,0,1|37.98,1,5,0,1|38.62,1,5,0,1|39.00,2,5,0,1|39.85,2,5,0,1|40.67,1,5,0,1|41.27,2,5,0,1|41.91,1,5,0,1|42.32,1,5,0,1|42.52,2,5,0,1|42.74,1,5,0,1|42.93,2,5,0,1|43.16,1,5,0,1|43.55,1,5,0,1|43.96,1,5,0,1|44.60,2,5,0,1|45.19,1,5,0,1|45.64,2,5,0,1|46.07,1,5,0,1|46.44,1,5,0,1|46.84,2,5,0,1|47.05,2,5,0,1|48.92,2,5,0,1|49.34,2,5,0,1|49.78,2,5,0,1|50.19,1,5,0,1|50.58,2,5,0,1|51.21,2,5,0,1|51.83,1,5,0,1|52.27,2,5,0,1|52.44,1,5,0,1|53.10,2,5,0,1|53.54,1,5,0,1|53.75,2,5,0,1|54.55,1,5,0,1|55.75,1,5,0,1|56.38,2,5,0,1|56.80,1,5,0,1|57.00,2,5,0,1|57.20,1,5,0,1|57.61,2,5,0,1|57.82,2,5,0,1|58.04,2,5,0,1|58.44,1,5,0,1|58.86,1,5,0,1|59.27,2,5,0,1|59.69,1,5,0,1|60.11,1,5,0,1|60.31,1,5,0,1|60.51,2,5,0,1|60.93,2,5,0,1|61.14,2,5,0,1|61.34,1,5,0,1|61.75,1,5,0,1|61.97,1,5,0,1|62.47,2,5,0,1|62.57,2,5,0,1|63.01,1,5,0,1|63.40,1,5,0,1|63.62,1,5,0,1|63.83,1,5,0,1|64.29,2,5,0,1|64.45,2,5,0,1|64.65,2,5,0,1|65.06,1,5,0,1|65.26,2,5,0,1|65.49,1,5,0,1|65.89,2,5,0,1|66.32,2,5,0,1|66.74,1,5,0,1|66.94,2,5,0,1|67.13,1,5,0,1|67.55,1,5,0,1|67.76,1,5,0,1|67.96,1,5,0,1|68.38,2,5,0,1|69.62,2,5,0,1|70.04,2,5,0,1|70.24,1,5,0,1|70.44,2,5,0,1|70.86,1,5,0,1|71.27,1,5,0,1|71.69,1,5,0,1|71.91,2,5,0,1|72.33,1,5,0,1|72.51,2,5,0,1|72.93,1,5,0,1|73.35,1,5,0,1|73.55,1,5,0,1|73.76,1,5,0,1|74.17,2,5,0,1|74.59,2,5,0,1|74.99,2,5,0,1|75.41,1,5,0,1|75.60,2,5,0,1|76.35,1,5,0,1|77.92,2,5,0,1|79.55,1,5,0,1|81.21,2,5,0,1|82.87,1,5,0,1|83.30,1,5,0,1|83.68,1,5,0,1|84.53,2,5,0,1|85.56,1,5,0,1|86.16,2,5,0,1|86.58,2,5,0,1|86.98,1,5,0,1|87.43,2,5,0,1|87.84,2,5,0,1|88.25,2,5,0,1|88.65,1,5,0,1|89.07,1,5,0,1|89.50,1,5,0,1|90.29,2,5,0,1|90.52,2,5,0,1|90.93,1,5,0,1|91.96,1,5,0,1|92.18,1,5,0,1|92.37,2,5,0,1|92.56,1,5,0,1|92.77,1,5,0,1|93.20,1,5,0,1|93.65,1,5,0,1|93.85,1,5,0,1|94.05,2,5,0,1|94.25,2,5,0,1|94.86,2,5,0,1|95.08,2,5,0,1|95.29,2,5,0,1|95.50,2,5,0,1|95.70,1,5,0,1|95.91,2,5,0,1|96.11,2,5,0,1|96.95,1,5,0,1|97.55,2,5,0,1|98.21,2,5,0,1|98.62,1,5,0,1|99.42,1,5,0,1|99.84,1,5,0,1|100.06,2,5,0,1|100.15,1,5,0,1|100.24,2,5,0,1|100.44,2,5,0,1|100.66,2,5,0,1|100.87,2,5,0,1|101.48,1,5,0,1|101.89,2,5,0,1|102.31,1,5,0,1|102.72,2,5,0,1|104.18,1,5,0,1|104.81,1,5,0,1|105.21,2,5,0,1|105.42,1,5,0,1|106.03,2,5,0,1|106.48,2,5,0,1|106.68,2,5,0,1|106.87,2,5,0,1|107.31,1,5,0,1|108.14,1,5,0,1|108.33,1,5,0,1|108.52,1,5,0,1|108.73,2,5,0,1|108.94,1,5,0,1|109.14,1,5,0,1|109.35,1,5,0,1|110.19,2,5,0,1|110.40,1,5,0,1|110.60,2,5,0,1|110.81,1,5,0,1|110.99,2,5,0,1|111.42,1,5,0,1|111.85,1,5,0,1|112.26,2,5,0,1|112.65,2,5,0,1|113.08,2,5,0,1|113.48,1,5,0,1|113.89,2,5,0,1|114.30,1,5,0,1|114.74,2,5,0,1|115.98,2,5,0,1|116.37,1,5,0,1|116.80,2,5,0,1|117.20,1,5,0,1|117.30,2,5,0,1|117.60,1,5,0,1|118.05,1,5,0,1|118.47,2,5,0,1|118.67,2,5,0,1|118.86,2,5,0,1|119.05,1,5,0,1|119.28,1,5,0,1|119.69,1,5,0,1|119.91,1,5,0,1|120.12,2,5,0,1|120.54,1,5,0,1|120.75,2,5,0,1|121.35,1,5,0,1|121.94,2,5,0,1|122.60,2,5,0,1|123.00,2,5,0,1|123.21,2,5,0,1|123.41,1,5,0,1|123.83,2,5,0,1|124.05,1,5,0,1|124.68,1,5,0,1|124.88,1,5,0,1|125.09,2,5,0,1|125.50,1,5,0,1|125.70,1,5,0,1|125.90,2,5,0,1|126.32,1,5,0,1|126.54,1,5,0,1|126.63,2,5,0,1|126.72,1,5,0,1|127.16,1,5,0,1|127.35,2,5,0,1|127.99,2,5,0,1|128.42,2,5,0,1|128.82,1,5,0,1|129.23,2,5,0,1|129.62,1,5,0,1|129.82,2,5,0,1|130.05,1,5,0,1|130.45,1,5,0,1|130.67,2,5,0,1|131.27,2,5,0,1|131.71,2,5,0,1|131.91,1,5,0,1|132.53,1,5,0,1|132.95,1,5,0,1|133.35,1,5,0,1|133.75,2,5,0,1|134.15,1,5,0,1|134.58,2,5,0,1|135.02,1,5,0,1|135.22,2,5,0,1|135.41,1,5,0,1|135.62,2,5,0,1|135.82,1,5,0,1|136.27,1,5,0,1|136.48,1,5,0,1|137.11,2,5,0,1|137.30,2,5,0,1|137.89,1,5,0,1|138.32,2,5,0,1|139.14,2,5,0,1|139.57,2,5,0,1|139.99,1,5,0,1|140.38,1,5,0,1|141.21,2,5,0,1|142.47,1,5,0,1</t>
   </si>
 </sst>
 </file>

--- a/Luban/Config/Datas/#NoteMap.xlsx
+++ b/Luban/Config/Datas/#NoteMap.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="15225" windowHeight="11865"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,8 @@
     <t>music1</t>
   </si>
   <si>
-    <t>0.10,1,5,5,1|0.97,1,5,0,1|1.57,2,5,0,1|2.65,2,5,0,1|3.44,1,5,0,1|4.25,1,5,0,1|4.87,2,5,0,1|5.94,2,5,0,1|6.11,1,5,0,1|6.75,2,5,0,1|7.57,1,5,0,1|7.70,2,5,0,1|8.17,1,5,0,1|9.20,2,5,0,1|9.61,2,5,0,1|10.05,1,5,0,1|10.84,2,5,0,1|11.54,2,5,0,1|12.52,2,5,0,1|12.95,1,5,0,1|13.36,2,5,0,1|14.20,1,5,0,1|14.33,2,5,0,1|14.80,1,5,0,1|15.40,2,5,0,1|15.87,2,5,0,1|16.24,1,5,0,1|16.68,2,5,0,1|17.06,1,5,0,1|17.23,2,5,0,1|17.48,1,5,0,1|17.89,2,5,0,1|18.10,1,5,0,1|18.72,2,5,0,1|19.15,2,5,0,1|19.57,2,5,0,1|19.96,1,5,0,1|20.32,2,5,0,1|20.55,1,5,0,1|20.76,2,5,0,1|22.44,1,5,0,1|22.88,1,5,0,1|23.31,1,5,0,1|23.71,2,5,0,1|23.91,1,5,0,1|24.14,2,5,0,1|24.57,1,5,0,1|24.74,2,5,0,1|25.35,1,5,0,1|26.19,1,5,0,1|26.61,2,5,0,1|27.01,1,5,0,1|27.22,1,5,0,1|27.39,2,5,0,1|28.06,2,5,0,1|28.67,1,5,0,1|29.11,1,5,0,1|29.98,2,5,0,1|30.72,1,5,0,1|31.37,2,5,0,1|31.97,2,5,0,1|32.39,2,5,0,1|32.83,2,5,0,1|33.20,1,5,0,1|34.02,1,5,0,1|34.67,2,5,0,1|35.26,2,5,0,1|35.70,1,5,0,1|35.89,2,5,0,1|36.10,1,5,0,1|36.29,2,5,0,1|36.52,1,5,0,1|36.95,2,5,0,1|37.36,2,5,0,1|37.80,2,5,0,1|37.98,1,5,0,1|38.62,1,5,0,1|39.00,2,5,0,1|39.85,2,5,0,1|40.67,1,5,0,1|41.27,2,5,0,1|41.91,1,5,0,1|42.32,1,5,0,1|42.52,2,5,0,1|42.74,1,5,0,1|42.93,2,5,0,1|43.16,1,5,0,1|43.55,1,5,0,1|43.96,1,5,0,1|44.60,2,5,0,1|45.19,1,5,0,1|45.64,2,5,0,1|46.07,1,5,0,1|46.44,1,5,0,1|46.84,2,5,0,1|47.05,2,5,0,1|48.92,2,5,0,1|49.34,2,5,0,1|49.78,2,5,0,1|50.19,1,5,0,1|50.58,2,5,0,1|51.21,2,5,0,1|51.83,1,5,0,1|52.27,2,5,0,1|52.44,1,5,0,1|53.10,2,5,0,1|53.54,1,5,0,1|53.75,2,5,0,1|54.55,1,5,0,1|55.75,1,5,0,1|56.38,2,5,0,1|56.80,1,5,0,1|57.00,2,5,0,1|57.20,1,5,0,1|57.61,2,5,0,1|57.82,2,5,0,1|58.04,2,5,0,1|58.44,1,5,0,1|58.86,1,5,0,1|59.27,2,5,0,1|59.69,1,5,0,1|60.11,1,5,0,1|60.31,1,5,0,1|60.51,2,5,0,1|60.93,2,5,0,1|61.14,2,5,0,1|61.34,1,5,0,1|61.75,1,5,0,1|61.97,1,5,0,1|62.47,2,5,0,1|62.57,2,5,0,1|63.01,1,5,0,1|63.40,1,5,0,1|63.62,1,5,0,1|63.83,1,5,0,1|64.29,2,5,0,1|64.45,2,5,0,1|64.65,2,5,0,1|65.06,1,5,0,1|65.26,2,5,0,1|65.49,1,5,0,1|65.89,2,5,0,1|66.32,2,5,0,1|66.74,1,5,0,1|66.94,2,5,0,1|67.13,1,5,0,1|67.55,1,5,0,1|67.76,1,5,0,1|67.96,1,5,0,1|68.38,2,5,0,1|69.62,2,5,0,1|70.04,2,5,0,1|70.24,1,5,0,1|70.44,2,5,0,1|70.86,1,5,0,1|71.27,1,5,0,1|71.69,1,5,0,1|71.91,2,5,0,1|72.33,1,5,0,1|72.51,2,5,0,1|72.93,1,5,0,1|73.35,1,5,0,1|73.55,1,5,0,1|73.76,1,5,0,1|74.17,2,5,0,1|74.59,2,5,0,1|74.99,2,5,0,1|75.41,1,5,0,1|75.60,2,5,0,1|76.35,1,5,0,1|77.92,2,5,0,1|79.55,1,5,0,1|81.21,2,5,0,1|82.87,1,5,0,1|83.30,1,5,0,1|83.68,1,5,0,1|84.53,2,5,0,1|85.56,1,5,0,1|86.16,2,5,0,1|86.58,2,5,0,1|86.98,1,5,0,1|87.43,2,5,0,1|87.84,2,5,0,1|88.25,2,5,0,1|88.65,1,5,0,1|89.07,1,5,0,1|89.50,1,5,0,1|90.29,2,5,0,1|90.52,2,5,0,1|90.93,1,5,0,1|91.96,1,5,0,1|92.18,1,5,0,1|92.37,2,5,0,1|92.56,1,5,0,1|92.77,1,5,0,1|93.20,1,5,0,1|93.65,1,5,0,1|93.85,1,5,0,1|94.05,2,5,0,1|94.25,2,5,0,1|94.86,2,5,0,1|95.08,2,5,0,1|95.29,2,5,0,1|95.50,2,5,0,1|95.70,1,5,0,1|95.91,2,5,0,1|96.11,2,5,0,1|96.95,1,5,0,1|97.55,2,5,0,1|98.21,2,5,0,1|98.62,1,5,0,1|99.42,1,5,0,1|99.84,1,5,0,1|100.06,2,5,0,1|100.15,1,5,0,1|100.24,2,5,0,1|100.44,2,5,0,1|100.66,2,5,0,1|100.87,2,5,0,1|101.48,1,5,0,1|101.89,2,5,0,1|102.31,1,5,0,1|102.72,2,5,0,1|104.18,1,5,0,1|104.81,1,5,0,1|105.21,2,5,0,1|105.42,1,5,0,1|106.03,2,5,0,1|106.48,2,5,0,1|106.68,2,5,0,1|106.87,2,5,0,1|107.31,1,5,0,1|108.14,1,5,0,1|108.33,1,5,0,1|108.52,1,5,0,1|108.73,2,5,0,1|108.94,1,5,0,1|109.14,1,5,0,1|109.35,1,5,0,1|110.19,2,5,0,1|110.40,1,5,0,1|110.60,2,5,0,1|110.81,1,5,0,1|110.99,2,5,0,1|111.42,1,5,0,1|111.85,1,5,0,1|112.26,2,5,0,1|112.65,2,5,0,1|113.08,2,5,0,1|113.48,1,5,0,1|113.89,2,5,0,1|114.30,1,5,0,1|114.74,2,5,0,1|115.98,2,5,0,1|116.37,1,5,0,1|116.80,2,5,0,1|117.20,1,5,0,1|117.30,2,5,0,1|117.60,1,5,0,1|118.05,1,5,0,1|118.47,2,5,0,1|118.67,2,5,0,1|118.86,2,5,0,1|119.05,1,5,0,1|119.28,1,5,0,1|119.69,1,5,0,1|119.91,1,5,0,1|120.12,2,5,0,1|120.54,1,5,0,1|120.75,2,5,0,1|121.35,1,5,0,1|121.94,2,5,0,1|122.60,2,5,0,1|123.00,2,5,0,1|123.21,2,5,0,1|123.41,1,5,0,1|123.83,2,5,0,1|124.05,1,5,0,1|124.68,1,5,0,1|124.88,1,5,0,1|125.09,2,5,0,1|125.50,1,5,0,1|125.70,1,5,0,1|125.90,2,5,0,1|126.32,1,5,0,1|126.54,1,5,0,1|126.63,2,5,0,1|126.72,1,5,0,1|127.16,1,5,0,1|127.35,2,5,0,1|127.99,2,5,0,1|128.42,2,5,0,1|128.82,1,5,0,1|129.23,2,5,0,1|129.62,1,5,0,1|129.82,2,5,0,1|130.05,1,5,0,1|130.45,1,5,0,1|130.67,2,5,0,1|131.27,2,5,0,1|131.71,2,5,0,1|131.91,1,5,0,1|132.53,1,5,0,1|132.95,1,5,0,1|133.35,1,5,0,1|133.75,2,5,0,1|134.15,1,5,0,1|134.58,2,5,0,1|135.02,1,5,0,1|135.22,2,5,0,1|135.41,1,5,0,1|135.62,2,5,0,1|135.82,1,5,0,1|136.27,1,5,0,1|136.48,1,5,0,1|137.11,2,5,0,1|137.30,2,5,0,1|137.89,1,5,0,1|138.32,2,5,0,1|139.14,2,5,0,1|139.57,2,5,0,1|139.99,1,5,0,1|140.38,1,5,0,1|141.21,2,5,0,1|142.47,1,5,0,1</t>
+    <t xml:space="preserve">0.97,1,5.2,0,1|1.58,2,5.2,0,1|2.65,2,5.2,0,1|3.45,1,5.2,0,1|4.26,1,5.2,0,1|4.88,2,5.2,0,1|5.94,2,5.2,0,1|6.11,1,5.2,0,1|6.76,2,5.2,0,1|7.58,1,5.2,0,1|7.7,2,5.2,0,1|8.17,1,5.2,0,1|9.2,2,5.2,0,1|9.61,2,5.2,0,1|10.06,1,5.2,0,1|10.85,2,5.2,0,1|11.54,2,5.2,0,1|12.53,2,5.2,0,1|12.96,1,5.2,0,1|13.37,2,5.2,0,1|14.2,1,5.2,0,1|14.33,2,5.2,0,1|14.81,1,5.2,0,1|15.41,2,5.2,0,1|15.87,2,5.2,0,1|16.24,1,5.2,0,1|16.68,2,5.2,0,1|17.07,1,5.2,0,1|17.24,2,5.2,0,1|17.49,1,5.2,0,1|17.9,2,5.2,0,1|18.11,1,5.2,0,1|18.72,2,5.2,0,1|19.15,2,5.2,0,1|19.58,2,5.2,0,1|19.97,1,5.2,0,1|20.33,2,5.2,0,1|20.56,1,5.2,0,1|20.76,2,5.2,0,1|22.45,1,5.2,0,1|22.89,1,5.2,0,1|23.31,1,5.2,0,1|23.71,2,5.2,0,1|23.91,1,5.2,0,1|24.14,2,5.2,0,1|24.58,1,5.2,0,1|24.75,2,5.2,0,1|25.36,1,5.2,0,1|25.76,1,5.2,0,1|26.19,1,5.2,0,1|26.61,2,5.2,0,1|27.02,1,5.2,0,1|27.23,1,5.2,0,1|27.4,2,5.2,0,1|28.06,2,5.2,0,1|28.67,1,5.2,0,1|29.12,1,5.2,0,1|29.99,2,5.2,0,1|30.72,1,5.2,0,1|31.37,2,5.2,0,1|31.98,2,5.2,0,1|32.4,2,5.2,0,1|32.83,2,5.2,0,1|33.2,1,5.2,0,1|34.03,1,5.2,0,1|34.68,2,5.2,0,1|35.26,2,5.2,0,1|35.7,1,5.2,0,1|35.9,2,5.2,0,1|36.1,1,5.2,0,1|36.29,2,5.2,0,1|36.52,1,5.2,0,1|36.96,2,5.2,0,1|37.36,2,5.2,0,1|37.8,2,5.2,0,1|37.98,1,5.2,0,1|38.62,1,5.2,0,1|39.0,2,5.2,0,1|39.85,2,5.2,0,1|40.68,1,5.2,0,1|41.27,2,5.2,0,1|41.92,1,5.2,0,1|42.33,1,5.2,0,1|42.53,2,5.2,0,1|42.74,1,5.2,0,1|42.93,2,5.2,0,1|43.16,1,5.2,0,1|43.56,1,5.2,0,1|43.96,1,5.2,0,1|44.6,2,5.2,0,1|45.2,1,5.2,0,1|45.65,2,5.2,0,1|46.07,1,5.2,0,1|46.45,1,5.2,0,1|46.85,2,5.2,0,1|47.06,2,5.2,0,1|48.93,2,5.2,0,1|49.34,2,5.2,0,1|49.78,2,5.2,0,1|50.2,1,5.2,0,1|50.59,2,5.2,0,1|51.22,2,5.2,0,1|51.84,1,5.2,0,1|52.27,2,5.2,0,1|52.45,1,5.2,0,1|53.1,2,5.2,0,1|53.54,1,5.2,0,1|53.75,2,5.2,0,1|54.56,1,5.2,0,1|55.76,1,5.2,0,1|56.39,2,5.2,0,1|56.81,1,5.2,0,1|57.0,2,5.2,0,1|57.21,1,5.2,0,1|57.62,2,5.2,0,1|57.82,2,5.2,0,1|58.04,2,5.2,0,1|58.45,1,5.2,0,1|58.87,1,5.2,0,1|59.28,2,5.2,0,1|59.69,1,5.2,0,1|60.12,1,5.2,0,1|60.32,1,5.2,0,1|60.51,2,5.2,0,1|60.94,2,5.2,0,1|61.14,2,5.2,0,1|61.35,1,5.2,0,1|61.76,1,5.2,0,1|61.98,1,5.2,0,1|62.48,2,5.2,0,1|62.58,2,5.2,0,1|63.01,1,5.2,0,1|63.41,1,5.2,0,1|63.63,1,5.2,0,1|63.83,1,5.2,0,1|64.29,2,5.2,0,1|64.45,2,5.2,0,1|64.65,2,5.2,0,1|65.06,1,5.2,0,1|65.26,2,5.2,0,1|65.5,1,5.2,0,1|65.9,2,5.2,0,1|66.33,2,5.2,0,1|66.75,1,5.2,0,1|66.94,2,5.2,0,1|67.14,1,5.2,0,1|67.55,1,5.2,0,1|67.76,1,5.2,0,1|67.97,1,5.2,0,1|68.38,2,5.2,0,1|69.62,2,5.2,0,1|70.04,2,5.2,0,1|70.25,1,5.2,0,1|70.45,2,5.2,0,1|70.86,1,5.2,0,1|71.28,1,5.2,0,1|71.69,1,5.2,0,1|71.91,2,5.2,0,1|72.33,1,5.2,0,1|72.52,2,5.2,0,1|72.94,1,5.2,0,1|73.35,1,5.2,0,1|73.55,1,5.2,0,1|73.77,1,5.2,0,1|74.17,2,5.2,0,1|74.59,2,5.2,0,1|74.99,2,5.2,0,1|75.41,1,5.2,0,1|75.61,2,5.2,0,1|76.36,1,5.2,0,1|77.92,2,5.2,0,1|79.56,1,5.2,0,1|81.21,2,5.2,0,1|82.88,1,5.2,0,1|83.32,1,5.2,0,1|83.69,1,5.2,0,1|84.54,2,5.2,0,1|85.57,1,5.2,0,1|86.17,2,5.2,0,1|86.58,2,5.2,0,1|86.99,1,5.2,0,1|87.43,2,5.2,0,1|87.85,2,5.2,0,1|88.25,2,5.2,0,1|88.66,1,5.2,0,1|89.07,1,5.2,0,1|89.5,1,5.2,0,1|90.29,2,5.2,0,1|90.53,2,5.2,0,1|90.93,1,5.2,0,1|91.96,1,5.2,0,1|92.19,1,5.2,0,1|92.38,2,5.2,0,1|92.57,1,5.2,0,1|92.77,1,5.2,0,1|93.2,1,5.2,0,1|93.65,1,5.2,0,1|93.85,1,5.2,0,1|94.05,2,5.2,0,1|94.25,2,5.2,0,1|94.86,2,5.2,0,1|95.08,2,5.2,0,1|95.3,2,5.2,0,1|95.51,2,5.2,0,1|95.7,1,5.2,0,1|95.91,2,5.2,0,1|96.12,2,5.2,0,1|96.95,1,5.2,0,1|97.56,2,5.2,0,1|98.21,1,5.2,0,1|98.62,1,5.2,0,1|99.42,1,5.2,0,1|99.85,1,5.2,0,1|100.07,2,5.2,0,1|100.15,1,5.2,0,1|100.24,2,5.2,0,1|100.45,2,5.2,0,1|100.66,2,5.2,0,1|100.87,2,5.2,0,1|101.49,1,5.2,0,1|101.9,2,5.2,0,1|102.32,1,5.2,0,1|102.73,2,5.2,0,1|104.18,1,5.2,0,1|104.81,1,5.2,0,1|105.22,2,5.2,0,1|105.42,1,5.2,0,1|106.03,2,5.2,0,1|106.49,2,5.2,0,1|106.68,2,5.2,0,1|106.87,2,5.2,0,1|107.31,1,5.2,0,1|108.14,1,5.2,0,1|108.33,1,5.2,0,1|108.52,1,5.2,0,1|108.74,2,5.2,0,1|108.94,1,5.2,0,1|109.14,1,5.2,0,1|109.35,1,5.2,0,1|110.2,2,5.2,0,1|110.41,1,5.2,0,1|110.61,2,5.2,0,1|110.82,1,5.2,0,1|111.0,2,5.2,0,1|111.43,1,5.2,0,1|111.85,1,5.2,0,1|112.27,2,5.2,0,1|112.66,2,5.2,0,1|113.08,2,5.2,0,1|113.48,1,5.2,0,1|113.9,2,5.2,0,1|114.31,1,5.2,0,1|114.75,2,5.2,0,1|115.99,2,5.2,0,1|116.38,1,5.2,0,1|116.8,2,5.2,0,1|117.2,1,5.2,0,1|117.31,2,5.2,0,1|117.61,1,5.2,0,1|118.06,1,5.2,0,1|118.48,2,5.2,0,1|118.68,2,5.2,0,1|118.86,2,5.2,0,1|119.05,1,5.2,0,1|119.29,1,5.2,0,1|119.7,1,5.2,0,1|119.92,1,5.2,0,1|120.12,2,5.2,0,1|120.54,1,5.2,0,1|120.75,2,5.2,0,1|121.35,1,5.2,0,1|121.95,2,5.2,0,1|122.6,2,5.2,0,1|123.01,2,5.2,0,1|123.22,2,5.2,0,1|123.42,1,5.2,0,1|123.84,2,5.2,0,1|124.06,1,5.2,0,1|124.68,1,5.2,0,1|124.88,1,5.2,0,1|125.09,2,5.2,0,1|125.3,2,5.2,0,1|125.51,1,5.2,0,1|125.71,1,5.2,0,1|125.9,2,5.2,0,1|126.32,1,5.2,0,1|126.54,1,5.2,0,1|126.64,2,5.2,0,1|126.73,1,5.2,0,1|127.17,1,5.2,0,1|127.36,2,5.2,0,1|128.0,2,5.2,0,1|128.42,2,5.2,0,1|128.83,1,5.2,0,1|129.23,2,5.2,0,1|129.62,1,5.2,0,1|129.83,2,5.2,0,1|130.05,1,5.2,0,1|130.46,1,5.2,0,1|130.67,2,5.2,0,1|131.27,2,5.2,0,1|131.71,2,5.2,0,1|131.91,1,5.2,0,1|132.53,1,5.2,0,1|132.95,1,5.2,0,1|133.35,1,5.2,0,1|133.76,2,5.2,0,1|134.16,1,5.2,0,1|134.59,2,5.2,0,1|135.03,1,5.2,0,1|135.22,2,5.2,0,1|135.41,1,5.2,0,1|135.62,2,5.2,0,1|135.82,1,5.2,0,1|136.27,1,5.2,0,1|136.49,1,5.2,0,1|137.11,2,5.2,0,1|137.31,2,5.2,0,1|137.9,1,5.2,0,1|138.32,2,5.2,0,1|139.14,2,5.2,0,1|139.57,2,5.2,0,1|139.99,1,5.2,0,1|140.39,1,5.2,0,1|141.22,2,5.2,0,1|142.48,1,5.2,0,1
+</t>
   </si>
 </sst>
 </file>
@@ -703,7 +704,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -719,6 +720,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1126,55 +1130,55 @@
       <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="5:6">
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="5:6">
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="5:7">
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="5:6">
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="5:6">
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="5:6">
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="5:7">
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="5:6">
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="5:6">
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="5:6">
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="5:6">
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Luban/Config/Datas/#NoteMap.xlsx
+++ b/Luban/Config/Datas/#NoteMap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="12795" windowHeight="6315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,8 +74,7 @@
     <t>music1</t>
   </si>
   <si>
-    <t xml:space="preserve">0.97,1,5.2,0,1|1.58,2,5.2,0,1|2.65,2,5.2,0,1|3.45,1,5.2,0,1|4.26,1,5.2,0,1|4.88,2,5.2,0,1|5.94,2,5.2,0,1|6.11,1,5.2,0,1|6.76,2,5.2,0,1|7.58,1,5.2,0,1|7.7,2,5.2,0,1|8.17,1,5.2,0,1|9.2,2,5.2,0,1|9.61,2,5.2,0,1|10.06,1,5.2,0,1|10.85,2,5.2,0,1|11.54,2,5.2,0,1|12.53,2,5.2,0,1|12.96,1,5.2,0,1|13.37,2,5.2,0,1|14.2,1,5.2,0,1|14.33,2,5.2,0,1|14.81,1,5.2,0,1|15.41,2,5.2,0,1|15.87,2,5.2,0,1|16.24,1,5.2,0,1|16.68,2,5.2,0,1|17.07,1,5.2,0,1|17.24,2,5.2,0,1|17.49,1,5.2,0,1|17.9,2,5.2,0,1|18.11,1,5.2,0,1|18.72,2,5.2,0,1|19.15,2,5.2,0,1|19.58,2,5.2,0,1|19.97,1,5.2,0,1|20.33,2,5.2,0,1|20.56,1,5.2,0,1|20.76,2,5.2,0,1|22.45,1,5.2,0,1|22.89,1,5.2,0,1|23.31,1,5.2,0,1|23.71,2,5.2,0,1|23.91,1,5.2,0,1|24.14,2,5.2,0,1|24.58,1,5.2,0,1|24.75,2,5.2,0,1|25.36,1,5.2,0,1|25.76,1,5.2,0,1|26.19,1,5.2,0,1|26.61,2,5.2,0,1|27.02,1,5.2,0,1|27.23,1,5.2,0,1|27.4,2,5.2,0,1|28.06,2,5.2,0,1|28.67,1,5.2,0,1|29.12,1,5.2,0,1|29.99,2,5.2,0,1|30.72,1,5.2,0,1|31.37,2,5.2,0,1|31.98,2,5.2,0,1|32.4,2,5.2,0,1|32.83,2,5.2,0,1|33.2,1,5.2,0,1|34.03,1,5.2,0,1|34.68,2,5.2,0,1|35.26,2,5.2,0,1|35.7,1,5.2,0,1|35.9,2,5.2,0,1|36.1,1,5.2,0,1|36.29,2,5.2,0,1|36.52,1,5.2,0,1|36.96,2,5.2,0,1|37.36,2,5.2,0,1|37.8,2,5.2,0,1|37.98,1,5.2,0,1|38.62,1,5.2,0,1|39.0,2,5.2,0,1|39.85,2,5.2,0,1|40.68,1,5.2,0,1|41.27,2,5.2,0,1|41.92,1,5.2,0,1|42.33,1,5.2,0,1|42.53,2,5.2,0,1|42.74,1,5.2,0,1|42.93,2,5.2,0,1|43.16,1,5.2,0,1|43.56,1,5.2,0,1|43.96,1,5.2,0,1|44.6,2,5.2,0,1|45.2,1,5.2,0,1|45.65,2,5.2,0,1|46.07,1,5.2,0,1|46.45,1,5.2,0,1|46.85,2,5.2,0,1|47.06,2,5.2,0,1|48.93,2,5.2,0,1|49.34,2,5.2,0,1|49.78,2,5.2,0,1|50.2,1,5.2,0,1|50.59,2,5.2,0,1|51.22,2,5.2,0,1|51.84,1,5.2,0,1|52.27,2,5.2,0,1|52.45,1,5.2,0,1|53.1,2,5.2,0,1|53.54,1,5.2,0,1|53.75,2,5.2,0,1|54.56,1,5.2,0,1|55.76,1,5.2,0,1|56.39,2,5.2,0,1|56.81,1,5.2,0,1|57.0,2,5.2,0,1|57.21,1,5.2,0,1|57.62,2,5.2,0,1|57.82,2,5.2,0,1|58.04,2,5.2,0,1|58.45,1,5.2,0,1|58.87,1,5.2,0,1|59.28,2,5.2,0,1|59.69,1,5.2,0,1|60.12,1,5.2,0,1|60.32,1,5.2,0,1|60.51,2,5.2,0,1|60.94,2,5.2,0,1|61.14,2,5.2,0,1|61.35,1,5.2,0,1|61.76,1,5.2,0,1|61.98,1,5.2,0,1|62.48,2,5.2,0,1|62.58,2,5.2,0,1|63.01,1,5.2,0,1|63.41,1,5.2,0,1|63.63,1,5.2,0,1|63.83,1,5.2,0,1|64.29,2,5.2,0,1|64.45,2,5.2,0,1|64.65,2,5.2,0,1|65.06,1,5.2,0,1|65.26,2,5.2,0,1|65.5,1,5.2,0,1|65.9,2,5.2,0,1|66.33,2,5.2,0,1|66.75,1,5.2,0,1|66.94,2,5.2,0,1|67.14,1,5.2,0,1|67.55,1,5.2,0,1|67.76,1,5.2,0,1|67.97,1,5.2,0,1|68.38,2,5.2,0,1|69.62,2,5.2,0,1|70.04,2,5.2,0,1|70.25,1,5.2,0,1|70.45,2,5.2,0,1|70.86,1,5.2,0,1|71.28,1,5.2,0,1|71.69,1,5.2,0,1|71.91,2,5.2,0,1|72.33,1,5.2,0,1|72.52,2,5.2,0,1|72.94,1,5.2,0,1|73.35,1,5.2,0,1|73.55,1,5.2,0,1|73.77,1,5.2,0,1|74.17,2,5.2,0,1|74.59,2,5.2,0,1|74.99,2,5.2,0,1|75.41,1,5.2,0,1|75.61,2,5.2,0,1|76.36,1,5.2,0,1|77.92,2,5.2,0,1|79.56,1,5.2,0,1|81.21,2,5.2,0,1|82.88,1,5.2,0,1|83.32,1,5.2,0,1|83.69,1,5.2,0,1|84.54,2,5.2,0,1|85.57,1,5.2,0,1|86.17,2,5.2,0,1|86.58,2,5.2,0,1|86.99,1,5.2,0,1|87.43,2,5.2,0,1|87.85,2,5.2,0,1|88.25,2,5.2,0,1|88.66,1,5.2,0,1|89.07,1,5.2,0,1|89.5,1,5.2,0,1|90.29,2,5.2,0,1|90.53,2,5.2,0,1|90.93,1,5.2,0,1|91.96,1,5.2,0,1|92.19,1,5.2,0,1|92.38,2,5.2,0,1|92.57,1,5.2,0,1|92.77,1,5.2,0,1|93.2,1,5.2,0,1|93.65,1,5.2,0,1|93.85,1,5.2,0,1|94.05,2,5.2,0,1|94.25,2,5.2,0,1|94.86,2,5.2,0,1|95.08,2,5.2,0,1|95.3,2,5.2,0,1|95.51,2,5.2,0,1|95.7,1,5.2,0,1|95.91,2,5.2,0,1|96.12,2,5.2,0,1|96.95,1,5.2,0,1|97.56,2,5.2,0,1|98.21,1,5.2,0,1|98.62,1,5.2,0,1|99.42,1,5.2,0,1|99.85,1,5.2,0,1|100.07,2,5.2,0,1|100.15,1,5.2,0,1|100.24,2,5.2,0,1|100.45,2,5.2,0,1|100.66,2,5.2,0,1|100.87,2,5.2,0,1|101.49,1,5.2,0,1|101.9,2,5.2,0,1|102.32,1,5.2,0,1|102.73,2,5.2,0,1|104.18,1,5.2,0,1|104.81,1,5.2,0,1|105.22,2,5.2,0,1|105.42,1,5.2,0,1|106.03,2,5.2,0,1|106.49,2,5.2,0,1|106.68,2,5.2,0,1|106.87,2,5.2,0,1|107.31,1,5.2,0,1|108.14,1,5.2,0,1|108.33,1,5.2,0,1|108.52,1,5.2,0,1|108.74,2,5.2,0,1|108.94,1,5.2,0,1|109.14,1,5.2,0,1|109.35,1,5.2,0,1|110.2,2,5.2,0,1|110.41,1,5.2,0,1|110.61,2,5.2,0,1|110.82,1,5.2,0,1|111.0,2,5.2,0,1|111.43,1,5.2,0,1|111.85,1,5.2,0,1|112.27,2,5.2,0,1|112.66,2,5.2,0,1|113.08,2,5.2,0,1|113.48,1,5.2,0,1|113.9,2,5.2,0,1|114.31,1,5.2,0,1|114.75,2,5.2,0,1|115.99,2,5.2,0,1|116.38,1,5.2,0,1|116.8,2,5.2,0,1|117.2,1,5.2,0,1|117.31,2,5.2,0,1|117.61,1,5.2,0,1|118.06,1,5.2,0,1|118.48,2,5.2,0,1|118.68,2,5.2,0,1|118.86,2,5.2,0,1|119.05,1,5.2,0,1|119.29,1,5.2,0,1|119.7,1,5.2,0,1|119.92,1,5.2,0,1|120.12,2,5.2,0,1|120.54,1,5.2,0,1|120.75,2,5.2,0,1|121.35,1,5.2,0,1|121.95,2,5.2,0,1|122.6,2,5.2,0,1|123.01,2,5.2,0,1|123.22,2,5.2,0,1|123.42,1,5.2,0,1|123.84,2,5.2,0,1|124.06,1,5.2,0,1|124.68,1,5.2,0,1|124.88,1,5.2,0,1|125.09,2,5.2,0,1|125.3,2,5.2,0,1|125.51,1,5.2,0,1|125.71,1,5.2,0,1|125.9,2,5.2,0,1|126.32,1,5.2,0,1|126.54,1,5.2,0,1|126.64,2,5.2,0,1|126.73,1,5.2,0,1|127.17,1,5.2,0,1|127.36,2,5.2,0,1|128.0,2,5.2,0,1|128.42,2,5.2,0,1|128.83,1,5.2,0,1|129.23,2,5.2,0,1|129.62,1,5.2,0,1|129.83,2,5.2,0,1|130.05,1,5.2,0,1|130.46,1,5.2,0,1|130.67,2,5.2,0,1|131.27,2,5.2,0,1|131.71,2,5.2,0,1|131.91,1,5.2,0,1|132.53,1,5.2,0,1|132.95,1,5.2,0,1|133.35,1,5.2,0,1|133.76,2,5.2,0,1|134.16,1,5.2,0,1|134.59,2,5.2,0,1|135.03,1,5.2,0,1|135.22,2,5.2,0,1|135.41,1,5.2,0,1|135.62,2,5.2,0,1|135.82,1,5.2,0,1|136.27,1,5.2,0,1|136.49,1,5.2,0,1|137.11,2,5.2,0,1|137.31,2,5.2,0,1|137.9,1,5.2,0,1|138.32,2,5.2,0,1|139.14,2,5.2,0,1|139.57,2,5.2,0,1|139.99,1,5.2,0,1|140.39,1,5.2,0,1|141.22,2,5.2,0,1|142.48,1,5.2,0,1
-</t>
+    <t>0.91,1,5.2,0,1|1.72,1,5.2,0,1|2.33,2,5.2,0,1|3.4,2,5.2,0,1|4.2,1,5.2,0,1|5.01,1,5.2,0,1|5.63,2,5.2,0,1|6.69,2,5.2,0,1|6.86,1,5.2,0,1|7.51,2,5.2,0,1|8.33,1,5.2,0,1|8.45,2,5.2,0,1|8.92,1,5.2,0,1|9.95,2,5.2,0,1|10.36,2,5.2,0,1|10.81,1,5.2,0,1|11.6,2,5.2,0,1|12.29,2,5.2,0,1|13.28,2,5.2,0,1|13.71,1,5.2,0,1|14.12,2,5.2,0,1|14.95,1,5.2,0,1|15.08,2,5.2,0,1|15.56,1,5.2,0,1|16.16,2,5.2,0,1|16.62,2,5.2,0,1|16.99,1,5.2,0,1|17.43,2,5.2,0,1|17.82,1,5.2,0,1|17.99,2,5.2,0,1|18.24,1,5.2,0,1|18.65,2,5.2,0,1|18.86,1,5.2,0,1|19.47,2,5.2,0,1|19.9,2,5.2,0,1|20.33,2,5.2,0,1|20.72,1,5.2,0,1|21.08,2,5.2,0,1|21.31,1,5.2,0,1|21.51,2,5.2,0,1|23.2,1,5.2,0,1|23.64,1,5.2,0,1|24.06,1,5.2,0,1|24.46,2,5.2,0,1|24.66,1,5.2,0,1|24.89,2,5.2,0,1|25.33,1,5.2,0,1|25.5,2,5.2,0,1|26.11,1,5.2,0,1|26.51,1,5.2,0,1|26.94,1,5.2,0,1|27.36,2,5.2,0,1|27.77,1,5.2,0,1|27.98,1,5.2,0,1|28.15,2,5.2,0,1|28.81,2,5.2,0,1|29.42,1,5.2,0,1|29.87,1,5.2,0,1|30.74,2,5.2,0,1|31.47,1,5.2,0,1|32.12,2,5.2,0,1|32.73,2,5.2,0,1|33.15,2,5.2,0,1|33.58,2,5.2,0,1|33.95,1,5.2,0,1|34.78,1,5.2,0,1|35.43,2,5.2,0,1|36.01,2,5.2,0,1|36.45,1,5.2,0,1|36.65,2,5.2,0,1|36.85,1,5.2,0,1|37.04,2,5.2,0,1|37.27,1,5.2,0,1|37.71,2,5.2,0,1|38.11,2,5.2,0,1|38.55,2,5.2,0,1|38.73,1,5.2,0,1|39.37,1,5.2,0,1|39.75,2,5.2,0,1|40.6,2,5.2,0,1|41.43,1,5.2,0,1|42.02,2,5.2,0,1|42.67,1,5.2,0,1|43.08,1,5.2,0,1|43.28,2,5.2,0,1|43.49,1,5.2,0,1|43.68,2,5.2,0,1|43.91,1,5.2,0,1|44.31,1,5.2,0,1|44.71,1,5.2,0,1|45.35,2,5.2,0,1|45.95,1,5.2,0,1|46.4,2,5.2,0,1|46.82,1,5.2,0,1|47.2,1,5.2,0,1|47.6,2,5.2,0,1|47.81,2,5.2,0,1|49.68,2,5.2,0,1|50.09,2,5.2,0,1|50.53,2,5.2,0,1|50.95,1,5.2,0,1|51.34,2,5.2,0,1|51.97,2,5.2,0,1|52.59,1,5.2,0,1|53.02,2,5.2,0,1|53.2,1,5.2,0,1|53.85,2,5.2,0,1|54.29,1,5.2,0,1|54.5,2,5.2,0,1|55.31,1,5.2,0,1|56.51,1,5.2,0,1|57.14,2,5.2,0,1|57.56,1,5.2,0,1|57.75,2,5.2,0,1|57.96,1,5.2,0,1|58.37,2,5.2,0,1|58.57,2,5.2,0,1|58.79,2,5.2,0,1|59.2,1,5.2,0,1|59.62,1,5.2,0,1|60.03,2,5.2,0,1|60.44,1,5.2,0,1|60.87,1,5.2,0,1|61.07,1,5.2,0,1|61.26,2,5.2,0,1|61.69,2,5.2,0,1|61.89,2,5.2,0,1|62.1,1,5.2,0,1|62.51,1,5.2,0,1|62.73,1,5.2,0,1|63.23,2,5.2,0,1|63.33,2,5.2,0,1|63.76,1,5.2,0,1|64.16,1,5.2,0,1|64.38,1,5.2,0,1|64.58,1,5.2,0,1|65.04,2,5.2,0,1|65.2,2,5.2,0,1|65.4,2,5.2,0,1|65.81,1,5.2,0,1|66.01,2,5.2,0,1|66.25,1,5.2,0,1|66.65,2,5.2,0,1|67.08,2,5.2,0,1|67.5,1,5.2,0,1|67.69,2,5.2,0,1|67.89,1,5.2,0,1|68.3,1,5.2,0,1|68.51,1,5.2,0,1|68.72,1,5.2,0,1|69.13,2,5.2,0,1|70.37,2,5.2,0,1|70.79,2,5.2,0,1|71,1,5.2,0,1|71.2,2,5.2,0,1|71.61,1,5.2,0,1|72.03,1,5.2,0,1|72.44,1,5.2,0,1|72.66,2,5.2,0,1|73.08,1,5.2,0,1|73.27,2,5.2,0,1|73.69,1,5.2,0,1|74.1,1,5.2,0,1|74.3,1,5.2,0,1|74.52,1,5.2,0,1|74.92,2,5.2,0,1|75.34,2,5.2,0,1|75.74,2,5.2,0,1|76.16,1,5.2,0,1|76.36,2,5.2,0,1|77.11,1,5.2,0,1|78.67,2,5.2,0,1|80.31,1,5.2,0,1|81.96,2,5.2,0,1|83.63,1,5.2,0,1|84.07,1,5.2,0,1|84.44,1,5.2,0,1|85.29,2,5.2,0,1|86.32,1,5.2,0,1|86.92,2,5.2,0,1|87.33,2,5.2,0,1|87.74,1,5.2,0,1|88.18,2,5.2,0,1|88.6,2,5.2,0,1|89,2,5.2,0,1|89.41,1,5.2,0,1|89.82,1,5.2,0,1|90.25,1,5.2,0,1|91.04,2,5.2,0,1|91.28,2,5.2,0,1|91.68,1,5.2,0,1|92.71,1,5.2,0,1|92.94,1,5.2,0,1|93.13,2,5.2,0,1|93.32,1,5.2,0,1|93.52,1,5.2,0,1|93.95,1,5.2,0,1|94.4,1,5.2,0,1|94.6,1,5.2,0,1|94.8,2,5.2,0,1|95,2,5.2,0,1|95.61,2,5.2,0,1|95.83,2,5.2,0,1|96.05,2,5.2,0,1|96.26,2,5.2,0,1|96.45,1,5.2,0,1|96.66,2,5.2,0,1|96.87,2,5.2,0,1|97.7,1,5.2,0,1|98.31,2,5.2,0,1|98.96,1,5.2,0,1|99.37,1,5.2,0,1|100.17,1,5.2,0,1|100.6,1,5.2,0,1|100.82,2,5.2,0,1|100.9,1,5.2,0,1|100.99,2,5.2,0,1|101.2,2,5.2,0,1|101.41,2,5.2,0,1|101.62,2,5.2,0,1|102.24,1,5.2,0,1|102.65,2,5.2,0,1|103.07,1,5.2,0,1|103.48,2,5.2,0,1|104.93,1,5.2,0,1|105.56,1,5.2,0,1|105.97,2,5.2,0,1|106.17,1,5.2,0,1|106.78,2,5.2,0,1|107.24,2,5.2,0,1|107.43,2,5.2,0,1|107.62,2,5.2,0,1|108.06,1,5.2,0,1|108.89,1,5.2,0,1|109.08,1,5.2,0,1|109.27,1,5.2,0,1|109.49,2,5.2,0,1|109.69,1,5.2,0,1|109.89,1,5.2,0,1|110.1,1,5.2,0,1|110.95,2,5.2,0,1|111.16,1,5.2,0,1|111.36,2,5.2,0,1|111.57,1,5.2,0,1|111.75,2,5.2,0,1|112.18,1,5.2,0,1|112.6,1,5.2,0,1|113.02,2,5.2,0,1|113.41,2,5.2,0,1|113.83,2,5.2,0,1|114.23,1,5.2,0,1|114.65,2,5.2,0,1|115.06,1,5.2,0,1|115.5,2,5.2,0,1|116.74,2,5.2,0,1|117.13,1,5.2,0,1|117.55,2,5.2,0,1|117.95,1,5.2,0,1|118.06,2,5.2,0,1|118.36,1,5.2,0,1|118.81,1,5.2,0,1|119.23,2,5.2,0,1|119.43,2,5.2,0,1|119.61,2,5.2,0,1|119.8,1,5.2,0,1|120.04,1,5.2,0,1|120.45,1,5.2,0,1|120.67,1,5.2,0,1|120.87,2,5.2,0,1|121.29,1,5.2,0,1|121.5,2,5.2,0,1|122.1,1,5.2,0,1|122.7,2,5.2,0,1|123.35,2,5.2,0,1|123.76,2,5.2,0,1|123.97,2,5.2,0,1|124.17,1,5.2,0,1|124.59,2,5.2,0,1|124.81,1,5.2,0,1|125.43,1,5.2,0,1|125.63,1,5.2,0,1|125.84,2,5.2,0,1|126.05,2,5.2,0,1|126.26,1,5.2,0,1|126.46,1,5.2,0,1|126.65,2,5.2,0,1|127.07,1,5.2,0,1|127.29,1,5.2,0,1|127.39,2,5.2,0,1|127.48,1,5.2,0,1|127.92,1,5.2,0,1|128.11,2,5.2,0,1|128.75,2,5.2,0,1|129.17,2,5.2,0,1|129.58,1,5.2,0,1|129.98,2,5.2,0,1|130.37,1,5.2,0,1|130.58,2,5.2,0,1|130.8,1,5.2,0,1|131.21,1,5.2,0,1|131.42,2,5.2,0,1|132.02,2,5.2,0,1|132.46,2,5.2,0,1|132.66,1,5.2,0,1|133.28,1,5.2,0,1|133.7,1,5.2,0,1|134.1,1,5.2,0,1|134.51,2,5.2,0,1|134.91,1,5.2,0,1|135.34,2,5.2,0,1|135.78,1,5.2,0,1|135.97,2,5.2,0,1|136.16,1,5.2,0,1|136.37,2,5.2,0,1|136.57,1,5.2,0,1|137.02,1,5.2,0,1|137.24,1,5.2,0,1|137.86,2,5.2,0,1|138.06,2,5.2,0,1|138.65,1,5.2,0,1|139.07,2,5.2,0,1|139.89,2,5.2,0,1|140.32,2,5.2,0,1|140.74,1,5.2,0,1|141.14,1,5.2,0,1|141.97,2,5.2,0,1|143.23,1,5.2,0,1</t>
   </si>
 </sst>
 </file>
@@ -88,7 +87,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +108,12 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -574,52 +579,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,79 +633,79 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -721,8 +726,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>

--- a/Luban/Config/Datas/#NoteMap.xlsx
+++ b/Luban/Config/Datas/#NoteMap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="12795" windowHeight="6315"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
     <t>music1</t>
   </si>
   <si>
-    <t>0.91,1,5.2,0,1|1.72,1,5.2,0,1|2.33,2,5.2,0,1|3.4,2,5.2,0,1|4.2,1,5.2,0,1|5.01,1,5.2,0,1|5.63,2,5.2,0,1|6.69,2,5.2,0,1|6.86,1,5.2,0,1|7.51,2,5.2,0,1|8.33,1,5.2,0,1|8.45,2,5.2,0,1|8.92,1,5.2,0,1|9.95,2,5.2,0,1|10.36,2,5.2,0,1|10.81,1,5.2,0,1|11.6,2,5.2,0,1|12.29,2,5.2,0,1|13.28,2,5.2,0,1|13.71,1,5.2,0,1|14.12,2,5.2,0,1|14.95,1,5.2,0,1|15.08,2,5.2,0,1|15.56,1,5.2,0,1|16.16,2,5.2,0,1|16.62,2,5.2,0,1|16.99,1,5.2,0,1|17.43,2,5.2,0,1|17.82,1,5.2,0,1|17.99,2,5.2,0,1|18.24,1,5.2,0,1|18.65,2,5.2,0,1|18.86,1,5.2,0,1|19.47,2,5.2,0,1|19.9,2,5.2,0,1|20.33,2,5.2,0,1|20.72,1,5.2,0,1|21.08,2,5.2,0,1|21.31,1,5.2,0,1|21.51,2,5.2,0,1|23.2,1,5.2,0,1|23.64,1,5.2,0,1|24.06,1,5.2,0,1|24.46,2,5.2,0,1|24.66,1,5.2,0,1|24.89,2,5.2,0,1|25.33,1,5.2,0,1|25.5,2,5.2,0,1|26.11,1,5.2,0,1|26.51,1,5.2,0,1|26.94,1,5.2,0,1|27.36,2,5.2,0,1|27.77,1,5.2,0,1|27.98,1,5.2,0,1|28.15,2,5.2,0,1|28.81,2,5.2,0,1|29.42,1,5.2,0,1|29.87,1,5.2,0,1|30.74,2,5.2,0,1|31.47,1,5.2,0,1|32.12,2,5.2,0,1|32.73,2,5.2,0,1|33.15,2,5.2,0,1|33.58,2,5.2,0,1|33.95,1,5.2,0,1|34.78,1,5.2,0,1|35.43,2,5.2,0,1|36.01,2,5.2,0,1|36.45,1,5.2,0,1|36.65,2,5.2,0,1|36.85,1,5.2,0,1|37.04,2,5.2,0,1|37.27,1,5.2,0,1|37.71,2,5.2,0,1|38.11,2,5.2,0,1|38.55,2,5.2,0,1|38.73,1,5.2,0,1|39.37,1,5.2,0,1|39.75,2,5.2,0,1|40.6,2,5.2,0,1|41.43,1,5.2,0,1|42.02,2,5.2,0,1|42.67,1,5.2,0,1|43.08,1,5.2,0,1|43.28,2,5.2,0,1|43.49,1,5.2,0,1|43.68,2,5.2,0,1|43.91,1,5.2,0,1|44.31,1,5.2,0,1|44.71,1,5.2,0,1|45.35,2,5.2,0,1|45.95,1,5.2,0,1|46.4,2,5.2,0,1|46.82,1,5.2,0,1|47.2,1,5.2,0,1|47.6,2,5.2,0,1|47.81,2,5.2,0,1|49.68,2,5.2,0,1|50.09,2,5.2,0,1|50.53,2,5.2,0,1|50.95,1,5.2,0,1|51.34,2,5.2,0,1|51.97,2,5.2,0,1|52.59,1,5.2,0,1|53.02,2,5.2,0,1|53.2,1,5.2,0,1|53.85,2,5.2,0,1|54.29,1,5.2,0,1|54.5,2,5.2,0,1|55.31,1,5.2,0,1|56.51,1,5.2,0,1|57.14,2,5.2,0,1|57.56,1,5.2,0,1|57.75,2,5.2,0,1|57.96,1,5.2,0,1|58.37,2,5.2,0,1|58.57,2,5.2,0,1|58.79,2,5.2,0,1|59.2,1,5.2,0,1|59.62,1,5.2,0,1|60.03,2,5.2,0,1|60.44,1,5.2,0,1|60.87,1,5.2,0,1|61.07,1,5.2,0,1|61.26,2,5.2,0,1|61.69,2,5.2,0,1|61.89,2,5.2,0,1|62.1,1,5.2,0,1|62.51,1,5.2,0,1|62.73,1,5.2,0,1|63.23,2,5.2,0,1|63.33,2,5.2,0,1|63.76,1,5.2,0,1|64.16,1,5.2,0,1|64.38,1,5.2,0,1|64.58,1,5.2,0,1|65.04,2,5.2,0,1|65.2,2,5.2,0,1|65.4,2,5.2,0,1|65.81,1,5.2,0,1|66.01,2,5.2,0,1|66.25,1,5.2,0,1|66.65,2,5.2,0,1|67.08,2,5.2,0,1|67.5,1,5.2,0,1|67.69,2,5.2,0,1|67.89,1,5.2,0,1|68.3,1,5.2,0,1|68.51,1,5.2,0,1|68.72,1,5.2,0,1|69.13,2,5.2,0,1|70.37,2,5.2,0,1|70.79,2,5.2,0,1|71,1,5.2,0,1|71.2,2,5.2,0,1|71.61,1,5.2,0,1|72.03,1,5.2,0,1|72.44,1,5.2,0,1|72.66,2,5.2,0,1|73.08,1,5.2,0,1|73.27,2,5.2,0,1|73.69,1,5.2,0,1|74.1,1,5.2,0,1|74.3,1,5.2,0,1|74.52,1,5.2,0,1|74.92,2,5.2,0,1|75.34,2,5.2,0,1|75.74,2,5.2,0,1|76.16,1,5.2,0,1|76.36,2,5.2,0,1|77.11,1,5.2,0,1|78.67,2,5.2,0,1|80.31,1,5.2,0,1|81.96,2,5.2,0,1|83.63,1,5.2,0,1|84.07,1,5.2,0,1|84.44,1,5.2,0,1|85.29,2,5.2,0,1|86.32,1,5.2,0,1|86.92,2,5.2,0,1|87.33,2,5.2,0,1|87.74,1,5.2,0,1|88.18,2,5.2,0,1|88.6,2,5.2,0,1|89,2,5.2,0,1|89.41,1,5.2,0,1|89.82,1,5.2,0,1|90.25,1,5.2,0,1|91.04,2,5.2,0,1|91.28,2,5.2,0,1|91.68,1,5.2,0,1|92.71,1,5.2,0,1|92.94,1,5.2,0,1|93.13,2,5.2,0,1|93.32,1,5.2,0,1|93.52,1,5.2,0,1|93.95,1,5.2,0,1|94.4,1,5.2,0,1|94.6,1,5.2,0,1|94.8,2,5.2,0,1|95,2,5.2,0,1|95.61,2,5.2,0,1|95.83,2,5.2,0,1|96.05,2,5.2,0,1|96.26,2,5.2,0,1|96.45,1,5.2,0,1|96.66,2,5.2,0,1|96.87,2,5.2,0,1|97.7,1,5.2,0,1|98.31,2,5.2,0,1|98.96,1,5.2,0,1|99.37,1,5.2,0,1|100.17,1,5.2,0,1|100.6,1,5.2,0,1|100.82,2,5.2,0,1|100.9,1,5.2,0,1|100.99,2,5.2,0,1|101.2,2,5.2,0,1|101.41,2,5.2,0,1|101.62,2,5.2,0,1|102.24,1,5.2,0,1|102.65,2,5.2,0,1|103.07,1,5.2,0,1|103.48,2,5.2,0,1|104.93,1,5.2,0,1|105.56,1,5.2,0,1|105.97,2,5.2,0,1|106.17,1,5.2,0,1|106.78,2,5.2,0,1|107.24,2,5.2,0,1|107.43,2,5.2,0,1|107.62,2,5.2,0,1|108.06,1,5.2,0,1|108.89,1,5.2,0,1|109.08,1,5.2,0,1|109.27,1,5.2,0,1|109.49,2,5.2,0,1|109.69,1,5.2,0,1|109.89,1,5.2,0,1|110.1,1,5.2,0,1|110.95,2,5.2,0,1|111.16,1,5.2,0,1|111.36,2,5.2,0,1|111.57,1,5.2,0,1|111.75,2,5.2,0,1|112.18,1,5.2,0,1|112.6,1,5.2,0,1|113.02,2,5.2,0,1|113.41,2,5.2,0,1|113.83,2,5.2,0,1|114.23,1,5.2,0,1|114.65,2,5.2,0,1|115.06,1,5.2,0,1|115.5,2,5.2,0,1|116.74,2,5.2,0,1|117.13,1,5.2,0,1|117.55,2,5.2,0,1|117.95,1,5.2,0,1|118.06,2,5.2,0,1|118.36,1,5.2,0,1|118.81,1,5.2,0,1|119.23,2,5.2,0,1|119.43,2,5.2,0,1|119.61,2,5.2,0,1|119.8,1,5.2,0,1|120.04,1,5.2,0,1|120.45,1,5.2,0,1|120.67,1,5.2,0,1|120.87,2,5.2,0,1|121.29,1,5.2,0,1|121.5,2,5.2,0,1|122.1,1,5.2,0,1|122.7,2,5.2,0,1|123.35,2,5.2,0,1|123.76,2,5.2,0,1|123.97,2,5.2,0,1|124.17,1,5.2,0,1|124.59,2,5.2,0,1|124.81,1,5.2,0,1|125.43,1,5.2,0,1|125.63,1,5.2,0,1|125.84,2,5.2,0,1|126.05,2,5.2,0,1|126.26,1,5.2,0,1|126.46,1,5.2,0,1|126.65,2,5.2,0,1|127.07,1,5.2,0,1|127.29,1,5.2,0,1|127.39,2,5.2,0,1|127.48,1,5.2,0,1|127.92,1,5.2,0,1|128.11,2,5.2,0,1|128.75,2,5.2,0,1|129.17,2,5.2,0,1|129.58,1,5.2,0,1|129.98,2,5.2,0,1|130.37,1,5.2,0,1|130.58,2,5.2,0,1|130.8,1,5.2,0,1|131.21,1,5.2,0,1|131.42,2,5.2,0,1|132.02,2,5.2,0,1|132.46,2,5.2,0,1|132.66,1,5.2,0,1|133.28,1,5.2,0,1|133.7,1,5.2,0,1|134.1,1,5.2,0,1|134.51,2,5.2,0,1|134.91,1,5.2,0,1|135.34,2,5.2,0,1|135.78,1,5.2,0,1|135.97,2,5.2,0,1|136.16,1,5.2,0,1|136.37,2,5.2,0,1|136.57,1,5.2,0,1|137.02,1,5.2,0,1|137.24,1,5.2,0,1|137.86,2,5.2,0,1|138.06,2,5.2,0,1|138.65,1,5.2,0,1|139.07,2,5.2,0,1|139.89,2,5.2,0,1|140.32,2,5.2,0,1|140.74,1,5.2,0,1|141.14,1,5.2,0,1|141.97,2,5.2,0,1|143.23,1,5.2,0,1</t>
+    <t>0.91,1,5.2,0,1|1.72,1,5.2,0,1|2.33,2,5.2,0,1|3.4,2,5.2,0,1|4.2,1,5.2,0,1|5.01,1,5.2,0,1|5.63,2,5.2,0,1|6.69,2,5.2,0,1|6.86,1,5.2,0,1|7.51,2,5.2,0,1|8.33,1,5.2,0,1|8.45,2,5.2,0,1|8.92,1,5.2,0,1|9.95,2,5.2,0,1|10.36,2,5.2,0,1|10.81,1,5.2,0,1|11.6,2,5.2,0,1|12.29,2,5.2,0,1|13.28,2,5.2,0,1|13.71,1,5.2,0,1|14.12,2,5.2,0,1|14.95,1,5.2,0,1|15.08,2,5.2,0,1|15.56,1,5.2,0,1|16.16,2,5.2,0,1|16.62,2,5.2,0,1|16.99,1,5.2,0,1|17.43,2,5.2,0,1|17.82,1,5.2,0,1|17.99,2,5.2,0,1|18.24,1,5.2,0,1|18.65,2,5.2,0,1|18.86,1,5.2,0,1|19.47,2,5.2,0,1|19.9,2,5.2,0,1|20.33,2,5.2,0,1|20.72,1,5.2,0,1|21.08,2,5.2,0,1|21.31,1,5.2,0,1|21.51,2,5.2,0,1|23.2,1,5.2,0,1|23.64,1,5.2,0,1|24.06,1,5.2,0,1|24.46,2,5.2,0,1|24.66,1,5.2,0,1|24.89,2,5.2,0,1|25.33,1,5.2,0,1|25.5,2,5.2,0,1|26.11,1,5.2,0,1|26.51,1,5.2,0,1|26.94,1,5.2,0,1|27.36,2,5.2,0,1|27.77,1,5.2,0,1|27.98,1,5.2,0,1|28.15,2,5.2,0,1|28.81,2,5.2,0,1|29.42,1,5.2,0,1|29.87,1,5.2,0,1|30.74,2,5.2,0,1|31.47,1,5.2,0,1|32.12,2,5.2,0,1|32.73,2,5.2,0,1|33.15,2,5.2,0,1|33.58,2,5.2,0,1|33.95,1,5.2,0,1|34.78,1,5.2,0,1|35.43,2,5.2,0,1|36.01,2,5.2,0,1|36.45,1,5.2,0,1|36.65,2,5.2,0,1|36.85,1,5.2,0,1|37.04,2,5.2,0,1|37.27,1,5.2,0,1|37.71,2,5.2,0,1|38.11,2,5.2,0,1|38.55,2,5.2,0,1|38.73,1,5.2,0,1|39.37,1,5.2,0,1|39.75,2,5.2,0,1|40.6,2,5.2,0,1|41.43,1,5.2,0,1|42.02,2,5.2,0,1|42.67,1,5.2,0,1|43.08,1,5.2,0,1|43.28,2,5.2,0,1|43.49,1,5.2,0,1|43.68,2,5.2,0,1|43.91,1,5.2,0,1|44.31,1,5.2,0,1|44.71,1,5.2,0,1|45.35,2,5.2,0,1|45.95,1,5.2,0,1|46.4,2,5.2,0,1|46.82,1,5.2,0,1|47.2,1,5.2,0,1|47.6,2,5.2,0,1|47.81,2,5.2,0,1|49.68,2,5.2,0,1|50.09,2,5.2,0,1|50.53,2,5.2,0,1|50.95,1,5.2,0,1|51.34,2,5.2,0,1|51.97,2,5.2,0,1|52.59,1,5.2,0,1|53.02,2,5.2,0,1|53.2,1,5.2,0,1|53.85,2,5.2,0,1|54.29,1,5.2,0,1|54.5,2,5.2,0,1|55.31,1,5.2,0,1|56.51,1,5.2,0,1|57.14,2,5.2,0,1|</t>
   </si>
 </sst>
 </file>

--- a/Luban/Config/Datas/#NoteMap.xlsx
+++ b/Luban/Config/Datas/#NoteMap.xlsx
@@ -74,7 +74,7 @@
     <t>music1</t>
   </si>
   <si>
-    <t>0.91,1,5.2,0,1|1.72,1,5.2,0,1|2.33,2,5.2,0,1|3.4,2,5.2,0,1|4.2,1,5.2,0,1|5.01,1,5.2,0,1|5.63,2,5.2,0,1|6.69,2,5.2,0,1|6.86,1,5.2,0,1|7.51,2,5.2,0,1|8.33,1,5.2,0,1|8.45,2,5.2,0,1|8.92,1,5.2,0,1|9.95,2,5.2,0,1|10.36,2,5.2,0,1|10.81,1,5.2,0,1|11.6,2,5.2,0,1|12.29,2,5.2,0,1|13.28,2,5.2,0,1|13.71,1,5.2,0,1|14.12,2,5.2,0,1|14.95,1,5.2,0,1|15.08,2,5.2,0,1|15.56,1,5.2,0,1|16.16,2,5.2,0,1|16.62,2,5.2,0,1|16.99,1,5.2,0,1|17.43,2,5.2,0,1|17.82,1,5.2,0,1|17.99,2,5.2,0,1|18.24,1,5.2,0,1|18.65,2,5.2,0,1|18.86,1,5.2,0,1|19.47,2,5.2,0,1|19.9,2,5.2,0,1|20.33,2,5.2,0,1|20.72,1,5.2,0,1|21.08,2,5.2,0,1|21.31,1,5.2,0,1|21.51,2,5.2,0,1|23.2,1,5.2,0,1|23.64,1,5.2,0,1|24.06,1,5.2,0,1|24.46,2,5.2,0,1|24.66,1,5.2,0,1|24.89,2,5.2,0,1|25.33,1,5.2,0,1|25.5,2,5.2,0,1|26.11,1,5.2,0,1|26.51,1,5.2,0,1|26.94,1,5.2,0,1|27.36,2,5.2,0,1|27.77,1,5.2,0,1|27.98,1,5.2,0,1|28.15,2,5.2,0,1|28.81,2,5.2,0,1|29.42,1,5.2,0,1|29.87,1,5.2,0,1|30.74,2,5.2,0,1|31.47,1,5.2,0,1|32.12,2,5.2,0,1|32.73,2,5.2,0,1|33.15,2,5.2,0,1|33.58,2,5.2,0,1|33.95,1,5.2,0,1|34.78,1,5.2,0,1|35.43,2,5.2,0,1|36.01,2,5.2,0,1|36.45,1,5.2,0,1|36.65,2,5.2,0,1|36.85,1,5.2,0,1|37.04,2,5.2,0,1|37.27,1,5.2,0,1|37.71,2,5.2,0,1|38.11,2,5.2,0,1|38.55,2,5.2,0,1|38.73,1,5.2,0,1|39.37,1,5.2,0,1|39.75,2,5.2,0,1|40.6,2,5.2,0,1|41.43,1,5.2,0,1|42.02,2,5.2,0,1|42.67,1,5.2,0,1|43.08,1,5.2,0,1|43.28,2,5.2,0,1|43.49,1,5.2,0,1|43.68,2,5.2,0,1|43.91,1,5.2,0,1|44.31,1,5.2,0,1|44.71,1,5.2,0,1|45.35,2,5.2,0,1|45.95,1,5.2,0,1|46.4,2,5.2,0,1|46.82,1,5.2,0,1|47.2,1,5.2,0,1|47.6,2,5.2,0,1|47.81,2,5.2,0,1|49.68,2,5.2,0,1|50.09,2,5.2,0,1|50.53,2,5.2,0,1|50.95,1,5.2,0,1|51.34,2,5.2,0,1|51.97,2,5.2,0,1|52.59,1,5.2,0,1|53.02,2,5.2,0,1|53.2,1,5.2,0,1|53.85,2,5.2,0,1|54.29,1,5.2,0,1|54.5,2,5.2,0,1|55.31,1,5.2,0,1|56.51,1,5.2,0,1|57.14,2,5.2,0,1|</t>
+    <t>0.91,1,5.2,0,1|1.72,1,5.2,0,1|2.33,2,5.2,0,1|3.4,2,5.2,0,1|4.2,1,5.2,0,1|5.01,1,5.2,0,1|5.63,2,5.2,0,1|6.69,2,5.2,0,1|6.86,1,5.2,0,1|7.51,2,5.2,0,1|8.33,1,5.2,0,1|8.45,2,5.2,0,1|8.92,1,5.2,0,1|9.95,2,5.2,0,1|10.36,2,5.2,0,1|10.81,1,5.2,0,1|11.6,2,5.2,0,1|12.29,2,5.2,0,1|13.28,2,5.2,0,1|13.71,1,5.2,0,1|14.12,2,5.2,0,1|14.95,1,5.2,0,1|15.08,2,5.2,0,1|15.56,1,5.2,0,1|16.16,2,5.2,0,1|16.62,2,5.2,0,1|16.99,1,5.2,0,1|17.43,2,5.2,0,1|17.82,1,5.2,0,1|17.99,2,5.2,0,1|18.24,1,5.2,0,1|18.65,2,5.2,0,1|18.86,1,5.2,0,1|19.47,2,5.2,0,1|19.9,2,5.2,0,1|20.33,2,5.2,0,1|20.72,1,5.2,0,1|21.08,2,5.2,0,1|21.31,1,5.2,0,1|21.51,2,5.2,0,1|23.2,1,5.2,0,1|23.64,1,5.2,0,1|24.06,1,5.2,0,1|24.46,2,5.2,0,1|24.66,1,5.2,0,1|24.89,2,5.2,0,1|25.33,1,5.2,0,1|25.5,2,5.2,0,1|26.11,1,5.2,0,1|26.51,1,5.2,0,1|26.94,1,5.2,0,1|27.36,2,5.2,0,1|27.77,1,5.2,0,1|27.98,1,5.2,0,1|28.15,2,5.2,0,1|28.81,2,5.2,0,1|29.42,1,5.2,0,1|29.87,1,5.2,0,1|30.74,2,5.2,0,1|31.47,1,5.2,0,1|32.12,2,5.2,0,1|32.73,2,5.2,0,1|33.15,2,5.2,0,1|33.58,2,5.2,0,1|33.95,1,5.2,0,1|34.78,1,5.2,0,1|35.43,2,5.2,0,1|36.01,2,5.2,0,1|36.45,1,5.2,0,1|36.65,2,5.2,0,1|36.85,1,5.2,0,1|37.04,2,5.2,0,1|37.27,1,5.2,0,1|37.71,2,5.2,0,1|38.11,2,5.2,0,1|38.55,2,5.2,0,1|38.73,1,5.2,0,1|39.37,1,5.2,0,1|39.75,2,5.2,0,1|40.6,2,5.2,0,1|41.43,1,5.2,0,1|42.02,2,5.2,0,1|42.67,1,5.2,0,1|43.08,1,5.2,0,1|43.28,2,5.2,0,1|43.49,1,5.2,0,1|43.68,2,5.2,0,1|43.91,1,5.2,0,1|44.31,1,5.2,0,1|44.71,1,5.2,0,1|45.35,2,5.2,0,1|45.95,1,5.2,0,1|46.4,2,5.2,0,1|46.82,1,5.2,0,1|47.2,1,5.2,0,1|47.6,2,5.2,0,1|47.81,2,5.2,0,1|49.68,2,5.2,0,1|50.09,2,5.2,0,1|50.53,2,5.2,0,1|50.95,1,5.2,0,1|51.34,2,5.2,0,1|51.97,2,5.2,0,1|52.59,1,5.2,0,1|53.02,2,5.2,0,1|53.2,1,5.2,0,1|53.85,2,5.2,0,1|54.29,1,5.2,0,1|54.5,2,5.2,0,1|55.31,1,5.2,0,1|56.51,1,5.2,0,1|57.14,2,5.2,0,1|57.56,1,5.2,0,1|57.75,2,5.2,0,1|57.96,1,5.2,0,1|58.37,2,5.2,0,1|58.57,2,5.2,0,1|58.79,2,5.2,0,1|59.2,1,5.2,0,1|59.62,1,5.2,0,1|60.03,2,5.2,0,1|60.44,1,5.2,0,1</t>
   </si>
 </sst>
 </file>

--- a/Luban/Config/Datas/#NoteMap.xlsx
+++ b/Luban/Config/Datas/#NoteMap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="25600" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
     <t>music1</t>
   </si>
   <si>
-    <t>0.91,1,5.2,0,1|1.72,1,5.2,0,1|2.33,2,5.2,0,1|3.4,2,5.2,0,1|4.2,1,5.2,0,1|5.01,1,5.2,0,1|5.63,2,5.2,0,1|6.69,2,5.2,0,1|6.86,1,5.2,0,1|7.51,2,5.2,0,1|8.33,1,5.2,0,1|8.45,2,5.2,0,1|8.92,1,5.2,0,1|9.95,2,5.2,0,1|10.36,2,5.2,0,1|10.81,1,5.2,0,1|11.6,2,5.2,0,1|12.29,2,5.2,0,1|13.28,2,5.2,0,1|13.71,1,5.2,0,1|14.12,2,5.2,0,1|14.95,1,5.2,0,1|15.08,2,5.2,0,1|15.56,1,5.2,0,1|16.16,2,5.2,0,1|16.62,2,5.2,0,1|16.99,1,5.2,0,1|17.43,2,5.2,0,1|17.82,1,5.2,0,1|17.99,2,5.2,0,1|18.24,1,5.2,0,1|18.65,2,5.2,0,1|18.86,1,5.2,0,1|19.47,2,5.2,0,1|19.9,2,5.2,0,1|20.33,2,5.2,0,1|20.72,1,5.2,0,1|21.08,2,5.2,0,1|21.31,1,5.2,0,1|21.51,2,5.2,0,1|23.2,1,5.2,0,1|23.64,1,5.2,0,1|24.06,1,5.2,0,1|24.46,2,5.2,0,1|24.66,1,5.2,0,1|24.89,2,5.2,0,1|25.33,1,5.2,0,1|25.5,2,5.2,0,1|26.11,1,5.2,0,1|26.51,1,5.2,0,1|26.94,1,5.2,0,1|27.36,2,5.2,0,1|27.77,1,5.2,0,1|27.98,1,5.2,0,1|28.15,2,5.2,0,1|28.81,2,5.2,0,1|29.42,1,5.2,0,1|29.87,1,5.2,0,1|30.74,2,5.2,0,1|31.47,1,5.2,0,1|32.12,2,5.2,0,1|32.73,2,5.2,0,1|33.15,2,5.2,0,1|33.58,2,5.2,0,1|33.95,1,5.2,0,1|34.78,1,5.2,0,1|35.43,2,5.2,0,1|36.01,2,5.2,0,1|36.45,1,5.2,0,1|36.65,2,5.2,0,1|36.85,1,5.2,0,1|37.04,2,5.2,0,1|37.27,1,5.2,0,1|37.71,2,5.2,0,1|38.11,2,5.2,0,1|38.55,2,5.2,0,1|38.73,1,5.2,0,1|39.37,1,5.2,0,1|39.75,2,5.2,0,1|40.6,2,5.2,0,1|41.43,1,5.2,0,1|42.02,2,5.2,0,1|42.67,1,5.2,0,1|43.08,1,5.2,0,1|43.28,2,5.2,0,1|43.49,1,5.2,0,1|43.68,2,5.2,0,1|43.91,1,5.2,0,1|44.31,1,5.2,0,1|44.71,1,5.2,0,1|45.35,2,5.2,0,1|45.95,1,5.2,0,1|46.4,2,5.2,0,1|46.82,1,5.2,0,1|47.2,1,5.2,0,1|47.6,2,5.2,0,1|47.81,2,5.2,0,1|49.68,2,5.2,0,1|50.09,2,5.2,0,1|50.53,2,5.2,0,1|50.95,1,5.2,0,1|51.34,2,5.2,0,1|51.97,2,5.2,0,1|52.59,1,5.2,0,1|53.02,2,5.2,0,1|53.2,1,5.2,0,1|53.85,2,5.2,0,1|54.29,1,5.2,0,1|54.5,2,5.2,0,1|55.31,1,5.2,0,1|56.51,1,5.2,0,1|57.14,2,5.2,0,1|57.56,1,5.2,0,1|57.75,2,5.2,0,1|57.96,1,5.2,0,1|58.37,2,5.2,0,1|58.57,2,5.2,0,1|58.79,2,5.2,0,1|59.2,1,5.2,0,1|59.62,1,5.2,0,1|60.03,2,5.2,0,1|60.44,1,5.2,0,1</t>
+    <t>0.91,1,5.2,0,1,1|1.72,1,5.2,0,1,1|2.33,2,5.2,0,1,2|3.4,2,5.2,0,1,2|4.2,1,5.2,0,1,0|5.01,1,5.2,0,1,0|5.63,2,5.2,0,1,0|6.69,2,5.2,0,1,0|6.86,1,5.2,0,1,0|7.51,2,5.2,0,1,0|8.33,1,5.2,0,1,0|8.45,2,5.2,0,1,0|8.92,1,5.2,0,1,0|9.95,2,5.2,0,1,0|10.36,2,5.2,0,1,0|10.81,1,5.2,0,1,0|11.6,2,5.2,0,1,0|12.29,2,5.2,0,1,0|13.28,2,5.2,0,1,0|13.71,1,5.2,0,1,0|14.12,2,5.2,0,1,0|14.95,1,5.2,0,1,0|15.08,2,5.2,0,1,0|15.56,1,5.2,0,1,0|16.16,2,5.2,0,1,0|16.62,2,5.2,0,1,0|16.99,1,5.2,0,1,0|17.43,2,5.2,0,1,0|17.82,1,5.2,0,1,0|17.99,2,5.2,0,1,0|18.24,1,5.2,0,1,0|18.65,2,5.2,0,1,0|18.86,1,5.2,0,1,0|19.47,2,5.2,0,1,0|19.9,2,5.2,0,1,0|20.33,2,5.2,0,1,0|20.72,1,5.2,0,1,0|21.08,2,5.2,0,1,0|21.31,1,5.2,0,1,0|21.51,2,5.2,0,1,0|23.2,1,5.2,0,1,0|23.64,1,5.2,0,1,0|24.06,1,5.2,0,1,0|24.46,2,5.2,0,1,0|24.66,1,5.2,0,1,0|24.89,2,5.2,0,1,0|25.33,1,5.2,0,1,0|25.5,2,5.2,0,1,0|26.11,1,5.2,0,1,0|26.51,1,5.2,0,1,0|26.94,1,5.2,0,1,0|27.36,2,5.2,0,1,0|27.77,1,5.2,0,1,0|27.98,1,5.2,0,1,0|28.15,2,5.2,0,1,0|28.81,2,5.2,0,1,0|29.42,1,5.2,0,1,0|29.87,1,5.2,0,1,0|30.74,2,5.2,0,1,0|31.47,1,5.2,0,1,0|32.12,2,5.2,0,1,0|32.73,2,5.2,0,1,0|33.15,2,5.2,0,1,0|33.58,2,5.2,0,1,0|33.95,1,5.2,0,1,0|34.78,1,5.2,0,1,0|35.43,2,5.2,0,1,0|36.01,2,5.2,0,1,0|36.45,1,5.2,0,1,0|36.65,2,5.2,0,1,0|36.85,1,5.2,0,1,0|37.04,2,5.2,0,1,0|37.27,1,5.2,0,1,0|37.71,2,5.2,0,1,0|38.11,2,5.2,0,1,0|38.55,2,5.2,0,1,0|38.73,1,5.2,0,1,0|39.37,1,5.2,0,1,0|39.75,2,5.2,0,1,0|40.6,2,5.2,0,1,0|41.43,1,5.2,0,1,0|42.02,2,5.2,0,1,0|42.67,1,5.2,0,1,0|43.08,1,5.2,0,1,0|43.28,2,5.2,0,1,0|43.49,1,5.2,0,1,0|43.68,2,5.2,0,1,0|43.91,1,5.2,0,1,0|44.31,1,5.2,0,1,0|44.71,1,5.2,0,1,0|45.35,2,5.2,0,1,0|45.95,1,5.2,0,1,0|46.4,2,5.2,0,1,0|46.82,1,5.2,0,1,0|47.2,1,5.2,0,1,0|47.6,2,5.2,0,1,0|47.81,2,5.2,0,1,0|49.68,2,5.2,0,1,0|50.09,2,5.2,0,1,0|50.53,2,5.2,0,1,0|50.95,1,5.2,0,1,0|51.34,2,5.2,0,1,0|51.97,2,5.2,0,1,0|52.59,1,5.2,0,1,0|53.02,2,5.2,0,1,0|53.2,1,5.2,0,1,0|53.85,2,5.2,0,1,0|54.29,1,5.2,0,1,0|54.5,2,5.2,0,1,0|55.31,1,5.2,0,1,0|56.51,1,5.2,0,1,0|57.14,2,5.2,0,1,0|57.56,1,5.2,0,1,0|57.75,2,5.2,0,1,0|57.96,1,5.2,0,1,0|58.37,2,5.2,0,1,0|58.57,2,5.2,0,1,0|58.79,2,5.2,0,1,0|59.2,1,5.2,0,1,0|59.62,1,5.2,0,1,0|60.03,2,5.2,0,1,0|60.44,1,5.2,0,1,0</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1061,7 @@
       <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="7.33333333333333" style="3" customWidth="1"/>
     <col min="2" max="2" width="9" style="3" customWidth="1"/>
